--- a/maplist/cohort_anti_HT.xlsx
+++ b/maplist/cohort_anti_HT.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CEB data warehouse\3_HT\RAMA-KKU-SI\Cohort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CEB data warehouse\3_HT\KKU-SI-Rama collaborations\Cohort\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="drug_map KT2" sheetId="3" r:id="rId1"/>
     <sheet name="drug classes and some remarks2" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'drug_map KT2'!$H$1:$H$282</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1372">
   <si>
     <t>ramadrugcode</t>
   </si>
@@ -4109,6 +4112,33 @@
   </si>
   <si>
     <t>xxxxxx-</t>
+  </si>
+  <si>
+    <t>loop diuretics</t>
+  </si>
+  <si>
+    <t>K diuretics</t>
+  </si>
+  <si>
+    <t>cirrhosis</t>
+  </si>
+  <si>
+    <t>acne</t>
+  </si>
+  <si>
+    <t>female hair loss</t>
+  </si>
+  <si>
+    <t>androgenic alopecia</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Torsemide</t>
+  </si>
+  <si>
+    <t>Spironolactone</t>
   </si>
 </sst>
 </file>
@@ -4924,22 +4954,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I282"/>
+  <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A282"/>
+    <sheetView tabSelected="1" topLeftCell="D272" workbookViewId="0">
+      <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -4976,25 +5006,25 @@
         <v>1362</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="F2" t="s">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>1125</v>
+        <v>1155</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -5005,25 +5035,25 @@
         <v>1362</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="F3" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>1125</v>
+        <v>1162</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -5034,25 +5064,25 @@
         <v>1362</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="E4" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="F4" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>1125</v>
+        <v>1162</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -5063,25 +5093,25 @@
         <v>1362</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="E5" t="s">
-        <v>666</v>
+        <v>726</v>
       </c>
       <c r="F5" t="s">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>1125</v>
+        <v>1182</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -5092,25 +5122,25 @@
         <v>1362</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="E6" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
       <c r="F6" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>1126</v>
+        <v>1209</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -5121,25 +5151,25 @@
         <v>1362</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>533</v>
       </c>
       <c r="E7" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
       <c r="F7" t="s">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>1126</v>
+        <v>1225</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -5150,25 +5180,25 @@
         <v>1362</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>536</v>
       </c>
       <c r="E8" t="s">
-        <v>667</v>
+        <v>774</v>
       </c>
       <c r="F8" t="s">
-        <v>896</v>
+        <v>1003</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>1126</v>
+        <v>1228</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -5179,25 +5209,25 @@
         <v>1362</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="E9" t="s">
-        <v>667</v>
+        <v>774</v>
       </c>
       <c r="F9" t="s">
-        <v>896</v>
+        <v>1003</v>
       </c>
       <c r="G9" s="1">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>1126</v>
+        <v>1228</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -5208,25 +5238,25 @@
         <v>1362</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>417</v>
+        <v>539</v>
       </c>
       <c r="E10" t="s">
-        <v>667</v>
+        <v>776</v>
       </c>
       <c r="F10" t="s">
-        <v>896</v>
+        <v>1005</v>
       </c>
       <c r="G10" s="1">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>1126</v>
+        <v>1230</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -5237,25 +5267,25 @@
         <v>1362</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="D11" t="s">
-        <v>417</v>
+        <v>546</v>
       </c>
       <c r="E11" t="s">
-        <v>667</v>
+        <v>782</v>
       </c>
       <c r="F11" t="s">
-        <v>896</v>
+        <v>1011</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>1126</v>
+        <v>1236</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -5266,25 +5296,25 @@
         <v>1362</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="E12" t="s">
-        <v>667</v>
+        <v>792</v>
       </c>
       <c r="F12" t="s">
-        <v>896</v>
+        <v>1021</v>
       </c>
       <c r="G12" s="1">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>1126</v>
+        <v>1245</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -5295,25 +5325,25 @@
         <v>1362</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>565</v>
       </c>
       <c r="E13" t="s">
-        <v>667</v>
+        <v>799</v>
       </c>
       <c r="F13" t="s">
-        <v>896</v>
+        <v>1028</v>
       </c>
       <c r="G13" s="1">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
-        <v>1126</v>
+        <v>1252</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -5324,25 +5354,25 @@
         <v>1362</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>570</v>
       </c>
       <c r="E14" t="s">
-        <v>667</v>
+        <v>804</v>
       </c>
       <c r="F14" t="s">
-        <v>896</v>
+        <v>1033</v>
       </c>
       <c r="G14" s="1">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
-        <v>1126</v>
+        <v>1257</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -5353,25 +5383,25 @@
         <v>1362</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>571</v>
       </c>
       <c r="E15" t="s">
-        <v>667</v>
+        <v>804</v>
       </c>
       <c r="F15" t="s">
-        <v>896</v>
+        <v>1033</v>
       </c>
       <c r="G15" s="1">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="H15" t="s">
-        <v>1126</v>
+        <v>1257</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -5382,25 +5412,25 @@
         <v>1362</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>572</v>
       </c>
       <c r="E16" t="s">
-        <v>668</v>
+        <v>804</v>
       </c>
       <c r="F16" t="s">
-        <v>897</v>
+        <v>1033</v>
       </c>
       <c r="G16" s="1">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>1127</v>
+        <v>1257</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -5411,25 +5441,25 @@
         <v>1362</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>418</v>
+        <v>578</v>
       </c>
       <c r="E17" t="s">
-        <v>668</v>
+        <v>810</v>
       </c>
       <c r="F17" t="s">
-        <v>897</v>
+        <v>1039</v>
       </c>
       <c r="G17" s="1">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
-        <v>1127</v>
+        <v>1263</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -5440,25 +5470,25 @@
         <v>1362</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>594</v>
       </c>
       <c r="E18" t="s">
-        <v>668</v>
+        <v>826</v>
       </c>
       <c r="F18" t="s">
-        <v>897</v>
+        <v>1055</v>
       </c>
       <c r="G18" s="1">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s">
-        <v>1127</v>
+        <v>1279</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -5469,25 +5499,25 @@
         <v>1362</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>594</v>
       </c>
       <c r="E19" t="s">
-        <v>668</v>
+        <v>826</v>
       </c>
       <c r="F19" t="s">
-        <v>897</v>
+        <v>1055</v>
       </c>
       <c r="G19" s="1">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="H19" t="s">
-        <v>1127</v>
+        <v>1279</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -5498,25 +5528,25 @@
         <v>1362</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>603</v>
       </c>
       <c r="E20" t="s">
-        <v>668</v>
+        <v>835</v>
       </c>
       <c r="F20" t="s">
-        <v>897</v>
+        <v>1064</v>
       </c>
       <c r="G20" s="1">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="H20" t="s">
-        <v>1127</v>
+        <v>1288</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -5527,25 +5557,25 @@
         <v>1362</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>373</v>
       </c>
       <c r="D21" t="s">
-        <v>418</v>
+        <v>612</v>
       </c>
       <c r="E21" t="s">
-        <v>668</v>
+        <v>844</v>
       </c>
       <c r="F21" t="s">
-        <v>897</v>
+        <v>1073</v>
       </c>
       <c r="G21" s="1">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="H21" t="s">
-        <v>1127</v>
+        <v>1295</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -5556,25 +5586,25 @@
         <v>1362</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>381</v>
       </c>
       <c r="D22" t="s">
-        <v>419</v>
+        <v>625</v>
       </c>
       <c r="E22" t="s">
-        <v>669</v>
+        <v>857</v>
       </c>
       <c r="F22" t="s">
-        <v>898</v>
+        <v>1086</v>
       </c>
       <c r="G22" s="1">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>1128</v>
+        <v>1308</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -5585,25 +5615,25 @@
         <v>1362</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>382</v>
       </c>
       <c r="D23" t="s">
-        <v>419</v>
+        <v>625</v>
       </c>
       <c r="E23" t="s">
-        <v>669</v>
+        <v>857</v>
       </c>
       <c r="F23" t="s">
-        <v>898</v>
+        <v>1086</v>
       </c>
       <c r="G23" s="1">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>1128</v>
+        <v>1308</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -5614,25 +5644,25 @@
         <v>1362</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>385</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="E24" t="s">
-        <v>670</v>
+        <v>862</v>
       </c>
       <c r="F24" t="s">
-        <v>899</v>
+        <v>1091</v>
       </c>
       <c r="G24" s="1">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>1129</v>
+        <v>1312</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -5643,25 +5673,25 @@
         <v>1362</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>386</v>
       </c>
       <c r="D25" t="s">
-        <v>421</v>
+        <v>631</v>
       </c>
       <c r="E25" t="s">
-        <v>671</v>
+        <v>862</v>
       </c>
       <c r="F25" t="s">
-        <v>900</v>
+        <v>1091</v>
       </c>
       <c r="G25" s="1">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>1130</v>
+        <v>1312</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -5672,25 +5702,25 @@
         <v>1362</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>422</v>
+        <v>633</v>
       </c>
       <c r="E26" t="s">
-        <v>672</v>
+        <v>864</v>
       </c>
       <c r="F26" t="s">
-        <v>901</v>
+        <v>1093</v>
       </c>
       <c r="G26" s="1">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>1131</v>
+        <v>1314</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -5701,25 +5731,25 @@
         <v>1362</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>394</v>
       </c>
       <c r="D27" t="s">
-        <v>423</v>
+        <v>642</v>
       </c>
       <c r="E27" t="s">
-        <v>673</v>
+        <v>873</v>
       </c>
       <c r="F27" t="s">
-        <v>902</v>
+        <v>1102</v>
       </c>
       <c r="G27" s="1">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="H27" t="s">
-        <v>1132</v>
+        <v>1322</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -5730,25 +5760,25 @@
         <v>1362</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>424</v>
+        <v>651</v>
       </c>
       <c r="E28" t="s">
-        <v>673</v>
+        <v>882</v>
       </c>
       <c r="F28" t="s">
-        <v>902</v>
+        <v>1111</v>
       </c>
       <c r="G28" s="1">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="H28" t="s">
-        <v>1132</v>
+        <v>1331</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -5759,25 +5789,25 @@
         <v>1362</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>425</v>
+        <v>653</v>
       </c>
       <c r="E29" t="s">
-        <v>674</v>
+        <v>884</v>
       </c>
       <c r="F29" t="s">
-        <v>903</v>
+        <v>1113</v>
       </c>
       <c r="G29" s="1">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="H29" t="s">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -5788,25 +5818,25 @@
         <v>1362</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="D30" t="s">
-        <v>426</v>
+        <v>657</v>
       </c>
       <c r="E30" t="s">
-        <v>675</v>
+        <v>888</v>
       </c>
       <c r="F30" t="s">
-        <v>904</v>
+        <v>1117</v>
       </c>
       <c r="G30" s="1">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="H30" t="s">
-        <v>1134</v>
+        <v>1337</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -5817,25 +5847,25 @@
         <v>1362</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="D31" t="s">
-        <v>427</v>
+        <v>658</v>
       </c>
       <c r="E31" t="s">
-        <v>676</v>
+        <v>888</v>
       </c>
       <c r="F31" t="s">
-        <v>905</v>
+        <v>1117</v>
       </c>
       <c r="G31" s="1">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="H31" t="s">
-        <v>1135</v>
+        <v>1337</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -5846,25 +5876,25 @@
         <v>1362</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>408</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>659</v>
       </c>
       <c r="E32" t="s">
-        <v>677</v>
+        <v>888</v>
       </c>
       <c r="F32" t="s">
-        <v>906</v>
+        <v>1117</v>
       </c>
       <c r="G32" s="1">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="H32" t="s">
-        <v>1136</v>
+        <v>1337</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -5875,25 +5905,25 @@
         <v>1362</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>412</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>663</v>
       </c>
       <c r="E33" t="s">
-        <v>678</v>
+        <v>892</v>
       </c>
       <c r="F33" t="s">
-        <v>907</v>
+        <v>1121</v>
       </c>
       <c r="G33" s="1">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="H33" t="s">
-        <v>1137</v>
+        <v>1341</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -5904,25 +5934,25 @@
         <v>1362</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D34" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E34" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="F34" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="G34" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -5933,25 +5963,25 @@
         <v>1362</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="E35" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="F35" t="s">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="G35" s="1">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>1139</v>
+        <v>1176</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -5962,25 +5992,25 @@
         <v>1362</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="D36" t="s">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="E36" t="s">
-        <v>681</v>
+        <v>755</v>
       </c>
       <c r="F36" t="s">
-        <v>910</v>
+        <v>984</v>
       </c>
       <c r="G36" s="1">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>1140</v>
+        <v>1211</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -5991,25 +6021,25 @@
         <v>1362</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="E37" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="F37" t="s">
-        <v>910</v>
+        <v>994</v>
       </c>
       <c r="G37" s="1">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>1140</v>
+        <v>1220</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -6020,25 +6050,25 @@
         <v>1362</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>645</v>
       </c>
       <c r="E38" t="s">
-        <v>681</v>
+        <v>876</v>
       </c>
       <c r="F38" t="s">
-        <v>910</v>
+        <v>1105</v>
       </c>
       <c r="G38" s="1">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="H38" t="s">
-        <v>1140</v>
+        <v>1325</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -6049,25 +6079,25 @@
         <v>1362</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="D39" t="s">
-        <v>435</v>
+        <v>647</v>
       </c>
       <c r="E39" t="s">
-        <v>682</v>
+        <v>878</v>
       </c>
       <c r="F39" t="s">
-        <v>911</v>
+        <v>1107</v>
       </c>
       <c r="G39" s="1">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>1141</v>
+        <v>1327</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -6078,25 +6108,25 @@
         <v>1362</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>647</v>
       </c>
       <c r="E40" t="s">
-        <v>683</v>
+        <v>878</v>
       </c>
       <c r="F40" t="s">
-        <v>912</v>
+        <v>1107</v>
       </c>
       <c r="G40" s="1">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>1142</v>
+        <v>1327</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -6107,25 +6137,25 @@
         <v>1362</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="D41" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="E41" t="s">
-        <v>683</v>
+        <v>747</v>
       </c>
       <c r="F41" t="s">
-        <v>912</v>
+        <v>976</v>
       </c>
       <c r="G41" s="1">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
-        <v>1142</v>
+        <v>1203</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -6136,25 +6166,25 @@
         <v>1362</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="E42" t="s">
-        <v>684</v>
+        <v>749</v>
       </c>
       <c r="F42" t="s">
-        <v>913</v>
+        <v>978</v>
       </c>
       <c r="G42" s="1">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="H42" t="s">
-        <v>1143</v>
+        <v>1205</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -6165,25 +6195,25 @@
         <v>1362</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="D43" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="E43" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="F43" t="s">
-        <v>914</v>
+        <v>995</v>
       </c>
       <c r="G43" s="1">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="H43" t="s">
-        <v>1144</v>
+        <v>1221</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -6194,25 +6224,25 @@
         <v>1362</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="D44" t="s">
-        <v>440</v>
+        <v>532</v>
       </c>
       <c r="E44" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="F44" t="s">
-        <v>915</v>
+        <v>999</v>
       </c>
       <c r="G44" s="1">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>1145</v>
+        <v>1224</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -6223,25 +6253,25 @@
         <v>1362</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="D45" t="s">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="E45" t="s">
-        <v>687</v>
+        <v>785</v>
       </c>
       <c r="F45" t="s">
-        <v>916</v>
+        <v>1014</v>
       </c>
       <c r="G45" s="1">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="H45" t="s">
-        <v>1146</v>
+        <v>1239</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -6252,25 +6282,25 @@
         <v>1362</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
-        <v>442</v>
+        <v>566</v>
       </c>
       <c r="E46" t="s">
-        <v>688</v>
+        <v>800</v>
       </c>
       <c r="F46" t="s">
-        <v>917</v>
+        <v>1029</v>
       </c>
       <c r="G46" s="1">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="H46" t="s">
-        <v>1147</v>
+        <v>1253</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -6281,25 +6311,25 @@
         <v>1362</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="D47" t="s">
-        <v>443</v>
+        <v>577</v>
       </c>
       <c r="E47" t="s">
-        <v>689</v>
+        <v>809</v>
       </c>
       <c r="F47" t="s">
-        <v>918</v>
+        <v>1038</v>
       </c>
       <c r="G47" s="1">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="H47" t="s">
-        <v>1148</v>
+        <v>1262</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -6310,25 +6340,25 @@
         <v>1362</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="D48" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
       <c r="E48" t="s">
-        <v>690</v>
+        <v>818</v>
       </c>
       <c r="F48" t="s">
-        <v>919</v>
+        <v>1047</v>
       </c>
       <c r="G48" s="1">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>1149</v>
+        <v>1271</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -6339,25 +6369,25 @@
         <v>1362</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="D49" t="s">
-        <v>445</v>
+        <v>591</v>
       </c>
       <c r="E49" t="s">
-        <v>691</v>
+        <v>823</v>
       </c>
       <c r="F49" t="s">
-        <v>920</v>
+        <v>1052</v>
       </c>
       <c r="G49" s="1">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="H49" t="s">
-        <v>1150</v>
+        <v>1276</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -6368,25 +6398,25 @@
         <v>1362</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="D50" t="s">
-        <v>446</v>
+        <v>596</v>
       </c>
       <c r="E50" t="s">
-        <v>692</v>
+        <v>828</v>
       </c>
       <c r="F50" t="s">
-        <v>921</v>
+        <v>1057</v>
       </c>
       <c r="G50" s="1">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="H50" t="s">
-        <v>1151</v>
+        <v>1281</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -6397,25 +6427,25 @@
         <v>1362</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="D51" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="E51" t="s">
-        <v>693</v>
+        <v>834</v>
       </c>
       <c r="F51" t="s">
-        <v>922</v>
+        <v>1063</v>
       </c>
       <c r="G51" s="1">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="H51" t="s">
-        <v>1152</v>
+        <v>1287</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -6426,25 +6456,25 @@
         <v>1362</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="D52" t="s">
-        <v>448</v>
+        <v>608</v>
       </c>
       <c r="E52" t="s">
-        <v>694</v>
+        <v>840</v>
       </c>
       <c r="F52" t="s">
-        <v>923</v>
+        <v>1069</v>
       </c>
       <c r="G52" s="1">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>1153</v>
+        <v>1292</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -6455,25 +6485,25 @@
         <v>1362</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>376</v>
       </c>
       <c r="D53" t="s">
-        <v>449</v>
+        <v>620</v>
       </c>
       <c r="E53" t="s">
-        <v>694</v>
+        <v>852</v>
       </c>
       <c r="F53" t="s">
-        <v>923</v>
+        <v>1081</v>
       </c>
       <c r="G53" s="1">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="H53" t="s">
-        <v>1153</v>
+        <v>1303</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -6484,25 +6514,25 @@
         <v>1362</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="D54" t="s">
-        <v>450</v>
+        <v>623</v>
       </c>
       <c r="E54" t="s">
-        <v>695</v>
+        <v>855</v>
       </c>
       <c r="F54" t="s">
-        <v>924</v>
+        <v>1084</v>
       </c>
       <c r="G54" s="1">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="H54" t="s">
-        <v>1154</v>
+        <v>1306</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -6513,25 +6543,25 @@
         <v>1362</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="E55" t="s">
-        <v>696</v>
+        <v>746</v>
       </c>
       <c r="F55" t="s">
-        <v>925</v>
+        <v>975</v>
       </c>
       <c r="G55" s="1">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>1155</v>
+        <v>1202</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -6542,25 +6572,25 @@
         <v>1362</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
       <c r="D56" t="s">
-        <v>452</v>
+        <v>607</v>
       </c>
       <c r="E56" t="s">
-        <v>697</v>
+        <v>839</v>
       </c>
       <c r="F56" t="s">
-        <v>926</v>
+        <v>1068</v>
       </c>
       <c r="G56" s="1">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="H56" t="s">
-        <v>1156</v>
+        <v>1291</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -6571,25 +6601,25 @@
         <v>1362</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
       <c r="D57" t="s">
-        <v>453</v>
+        <v>607</v>
       </c>
       <c r="E57" t="s">
-        <v>698</v>
+        <v>839</v>
       </c>
       <c r="F57" t="s">
-        <v>927</v>
+        <v>1068</v>
       </c>
       <c r="G57" s="1">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="H57" t="s">
-        <v>1157</v>
+        <v>1291</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -6600,25 +6630,25 @@
         <v>1362</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="D58" t="s">
-        <v>453</v>
+        <v>610</v>
       </c>
       <c r="E58" t="s">
-        <v>698</v>
+        <v>842</v>
       </c>
       <c r="F58" t="s">
-        <v>927</v>
+        <v>1071</v>
       </c>
       <c r="G58" s="1">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="H58" t="s">
-        <v>1157</v>
+        <v>1294</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -6629,25 +6659,25 @@
         <v>1362</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="D59" t="s">
-        <v>454</v>
+        <v>611</v>
       </c>
       <c r="E59" t="s">
-        <v>699</v>
+        <v>843</v>
       </c>
       <c r="F59" t="s">
-        <v>928</v>
+        <v>1072</v>
       </c>
       <c r="G59" s="1">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="H59" t="s">
-        <v>1157</v>
+        <v>1294</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -6658,25 +6688,25 @@
         <v>1362</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="D60" t="s">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="E60" t="s">
-        <v>700</v>
+        <v>853</v>
       </c>
       <c r="F60" t="s">
-        <v>929</v>
+        <v>1082</v>
       </c>
       <c r="G60" s="1">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="H60" t="s">
-        <v>1157</v>
+        <v>1304</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -6687,25 +6717,25 @@
         <v>1362</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="E61" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="F61" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="G61" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -6716,25 +6746,25 @@
         <v>1362</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="E62" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="F62" t="s">
-        <v>931</v>
+        <v>897</v>
       </c>
       <c r="G62" s="1">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>1158</v>
+        <v>1127</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -6745,25 +6775,25 @@
         <v>1362</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="E63" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="F63" t="s">
-        <v>932</v>
+        <v>897</v>
       </c>
       <c r="G63" s="1">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>1159</v>
+        <v>1127</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -6774,25 +6804,25 @@
         <v>1362</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="E64" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="F64" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="G64" s="1">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>1160</v>
+        <v>1127</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -6803,25 +6833,25 @@
         <v>1362</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="D65" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="E65" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="F65" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="G65" s="1">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>1160</v>
+        <v>1127</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -6832,25 +6862,25 @@
         <v>1362</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="E66" t="s">
-        <v>705</v>
+        <v>668</v>
       </c>
       <c r="F66" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
       <c r="G66" s="1">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>1161</v>
+        <v>1127</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -6861,25 +6891,25 @@
         <v>1362</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="E67" t="s">
-        <v>706</v>
+        <v>671</v>
       </c>
       <c r="F67" t="s">
-        <v>935</v>
+        <v>900</v>
       </c>
       <c r="G67" s="1">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>1162</v>
+        <v>1130</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -6890,25 +6920,25 @@
         <v>1362</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="E68" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="F68" t="s">
-        <v>935</v>
+        <v>902</v>
       </c>
       <c r="G68" s="1">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>1162</v>
+        <v>1132</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -6919,25 +6949,25 @@
         <v>1362</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="E69" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="F69" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="G69" s="1">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>1163</v>
+        <v>1132</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -6948,25 +6978,25 @@
         <v>1362</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D70" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="E70" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="F70" t="s">
-        <v>937</v>
+        <v>904</v>
       </c>
       <c r="G70" s="1">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>1352</v>
+        <v>1134</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -6977,25 +7007,25 @@
         <v>1362</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E71" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="F71" t="s">
-        <v>938</v>
+        <v>906</v>
       </c>
       <c r="G71" s="1">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H71" t="s">
-        <v>1165</v>
+        <v>1136</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -7006,25 +7036,25 @@
         <v>1362</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="E72" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="F72" t="s">
-        <v>939</v>
+        <v>910</v>
       </c>
       <c r="G72" s="1">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H72" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -7035,25 +7065,25 @@
         <v>1362</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="E73" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="F73" t="s">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="G73" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>1167</v>
+        <v>1140</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -7064,25 +7094,25 @@
         <v>1362</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D74" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="E74" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="F74" t="s">
-        <v>941</v>
+        <v>910</v>
       </c>
       <c r="G74" s="1">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>1168</v>
+        <v>1140</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -7093,25 +7123,25 @@
         <v>1362</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E75" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="F75" t="s">
-        <v>942</v>
+        <v>912</v>
       </c>
       <c r="G75" s="1">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s">
-        <v>1169</v>
+        <v>1142</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -7122,25 +7152,25 @@
         <v>1362</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D76" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="E76" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="F76" t="s">
-        <v>943</v>
+        <v>912</v>
       </c>
       <c r="G76" s="1">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H76" t="s">
-        <v>1170</v>
+        <v>1142</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -7151,25 +7181,25 @@
         <v>1362</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D77" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="E77" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="F77" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
       <c r="G77" s="1">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s">
-        <v>1171</v>
+        <v>1146</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -7180,25 +7210,25 @@
         <v>1362</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="E78" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="F78" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="G78" s="1">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s">
-        <v>1172</v>
+        <v>1150</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -7209,25 +7239,25 @@
         <v>1362</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D79" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E79" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="F79" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="G79" s="1">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -7238,25 +7268,25 @@
         <v>1362</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D80" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E80" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="F80" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="G80" s="1">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -7267,25 +7297,25 @@
         <v>1362</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="E81" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="F81" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="G81" s="1">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H81" t="s">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -7296,25 +7326,25 @@
         <v>1362</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="E82" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="F82" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="G82" s="1">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H82" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -7325,25 +7355,25 @@
         <v>1362</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D83" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E83" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F83" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="G83" s="1">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H83" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -7354,25 +7384,25 @@
         <v>1362</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="E84" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F84" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G84" s="1">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -7383,25 +7413,25 @@
         <v>1362</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D85" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E85" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="F85" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="G85" s="1">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
@@ -7412,25 +7442,25 @@
         <v>1362</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E86" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F86" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="G86" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -7441,25 +7471,25 @@
         <v>1362</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E87" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="F87" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="G87" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -7470,25 +7500,25 @@
         <v>1362</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D88" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E88" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="F88" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="G88" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -7499,25 +7529,25 @@
         <v>1362</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E89" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F89" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="G89" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
@@ -7528,25 +7558,25 @@
         <v>1362</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E90" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="F90" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="G90" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H90" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
@@ -7557,25 +7587,25 @@
         <v>1362</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D91" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E91" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F91" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="G91" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H91" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -7586,25 +7616,25 @@
         <v>1362</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D92" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E92" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="F92" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="G92" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H92" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
@@ -7615,25 +7645,25 @@
         <v>1362</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D93" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E93" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F93" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="G93" s="1">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H93" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
@@ -7644,25 +7674,25 @@
         <v>1362</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E94" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F94" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="G94" s="1">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H94" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
@@ -7673,25 +7703,25 @@
         <v>1362</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D95" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="E95" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F95" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="G95" s="1">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H95" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -7702,25 +7732,25 @@
         <v>1362</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D96" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E96" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F96" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="G96" s="1">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H96" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
@@ -7731,25 +7761,25 @@
         <v>1362</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D97" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E97" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F97" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="G97" s="1">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H97" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -7760,25 +7790,25 @@
         <v>1362</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D98" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E98" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="F98" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="G98" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H98" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
@@ -7789,25 +7819,25 @@
         <v>1362</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E99" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="F99" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="G99" s="1">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H99" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -7818,25 +7848,25 @@
         <v>1362</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D100" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="E100" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="F100" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="G100" s="1">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H100" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
@@ -7847,25 +7877,25 @@
         <v>1362</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D101" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E101" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="F101" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="G101" s="1">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H101" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
@@ -7876,25 +7906,25 @@
         <v>1362</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D102" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E102" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="F102" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="G102" s="1">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H102" t="s">
-        <v>1192</v>
+        <v>1201</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -7905,25 +7935,25 @@
         <v>1362</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D103" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="E103" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="F103" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="G103" s="1">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H103" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -7934,25 +7964,25 @@
         <v>1362</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="D104" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="E104" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="F104" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="G104" s="1">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H104" t="s">
-        <v>1192</v>
+        <v>1212</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -7963,25 +7993,25 @@
         <v>1362</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D105" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="E105" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="F105" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="G105" s="1">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="H105" t="s">
-        <v>1193</v>
+        <v>1216</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
@@ -7992,25 +8022,25 @@
         <v>1362</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D106" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="E106" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="F106" t="s">
-        <v>967</v>
+        <v>993</v>
       </c>
       <c r="G106" s="1">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H106" t="s">
-        <v>1194</v>
+        <v>1219</v>
       </c>
       <c r="I106" s="1">
         <v>0</v>
@@ -8021,25 +8051,25 @@
         <v>1362</v>
       </c>
       <c r="B107" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="E107" t="s">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="F107" t="s">
-        <v>967</v>
+        <v>1007</v>
       </c>
       <c r="G107" s="1">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="H107" t="s">
-        <v>1194</v>
+        <v>1232</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
@@ -8050,25 +8080,25 @@
         <v>1362</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="D108" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="E108" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="F108" t="s">
-        <v>967</v>
+        <v>1009</v>
       </c>
       <c r="G108" s="1">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="H108" t="s">
-        <v>1194</v>
+        <v>1234</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -8079,25 +8109,25 @@
         <v>1362</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="D109" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="E109" t="s">
-        <v>739</v>
+        <v>784</v>
       </c>
       <c r="F109" t="s">
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c r="G109" s="1">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="H109" t="s">
-        <v>1195</v>
+        <v>1238</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -8108,25 +8138,25 @@
         <v>1362</v>
       </c>
       <c r="B110" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="D110" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="E110" t="s">
-        <v>740</v>
+        <v>784</v>
       </c>
       <c r="F110" t="s">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="G110" s="1">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="H110" t="s">
-        <v>1196</v>
+        <v>1238</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -8137,25 +8167,25 @@
         <v>1362</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="D111" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="E111" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="F111" t="s">
-        <v>970</v>
+        <v>1013</v>
       </c>
       <c r="G111" s="1">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="H111" t="s">
-        <v>1197</v>
+        <v>1238</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -8166,25 +8196,25 @@
         <v>1362</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="D112" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="E112" t="s">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="F112" t="s">
-        <v>971</v>
+        <v>1015</v>
       </c>
       <c r="G112" s="1">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="H112" t="s">
-        <v>1198</v>
+        <v>1240</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
@@ -8195,25 +8225,25 @@
         <v>1362</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="D113" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="E113" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="F113" t="s">
-        <v>972</v>
+        <v>1018</v>
       </c>
       <c r="G113" s="1">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="H113" t="s">
-        <v>1199</v>
+        <v>1243</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
@@ -8224,25 +8254,25 @@
         <v>1362</v>
       </c>
       <c r="B114" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="D114" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="E114" t="s">
-        <v>743</v>
+        <v>793</v>
       </c>
       <c r="F114" t="s">
-        <v>972</v>
+        <v>1022</v>
       </c>
       <c r="G114" s="1">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="H114" t="s">
-        <v>1199</v>
+        <v>1246</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
@@ -8253,25 +8283,25 @@
         <v>1362</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C115" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="D115" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="E115" t="s">
-        <v>744</v>
+        <v>793</v>
       </c>
       <c r="F115" t="s">
-        <v>973</v>
+        <v>1022</v>
       </c>
       <c r="G115" s="1">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="H115" t="s">
-        <v>1200</v>
+        <v>1246</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -8282,25 +8312,25 @@
         <v>1362</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="E116" t="s">
-        <v>745</v>
+        <v>795</v>
       </c>
       <c r="F116" t="s">
-        <v>974</v>
+        <v>1024</v>
       </c>
       <c r="G116" s="1">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="H116" t="s">
-        <v>1201</v>
+        <v>1248</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -8311,25 +8341,25 @@
         <v>1362</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="D117" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="E117" t="s">
-        <v>746</v>
+        <v>797</v>
       </c>
       <c r="F117" t="s">
-        <v>975</v>
+        <v>1026</v>
       </c>
       <c r="G117" s="1">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="H117" t="s">
-        <v>1202</v>
+        <v>1250</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
@@ -8340,25 +8370,25 @@
         <v>1362</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="D118" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="E118" t="s">
-        <v>747</v>
+        <v>803</v>
       </c>
       <c r="F118" t="s">
-        <v>976</v>
+        <v>1032</v>
       </c>
       <c r="G118" s="1">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="H118" t="s">
-        <v>1203</v>
+        <v>1256</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
@@ -8369,25 +8399,25 @@
         <v>1362</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="D119" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="E119" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="F119" t="s">
-        <v>977</v>
+        <v>1035</v>
       </c>
       <c r="G119" s="1">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="H119" t="s">
-        <v>1204</v>
+        <v>1259</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -8398,25 +8428,25 @@
         <v>1362</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="E120" t="s">
-        <v>749</v>
+        <v>812</v>
       </c>
       <c r="F120" t="s">
-        <v>978</v>
+        <v>1041</v>
       </c>
       <c r="G120" s="1">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="H120" t="s">
-        <v>1205</v>
+        <v>1265</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
@@ -8427,25 +8457,25 @@
         <v>1362</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C121" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="D121" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="E121" t="s">
-        <v>750</v>
+        <v>815</v>
       </c>
       <c r="F121" t="s">
-        <v>979</v>
+        <v>1044</v>
       </c>
       <c r="G121" s="1">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="H121" t="s">
-        <v>1206</v>
+        <v>1268</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -8456,25 +8486,25 @@
         <v>1362</v>
       </c>
       <c r="B122" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="D122" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="E122" t="s">
-        <v>751</v>
+        <v>824</v>
       </c>
       <c r="F122" t="s">
-        <v>980</v>
+        <v>1053</v>
       </c>
       <c r="G122" s="1">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="H122" t="s">
-        <v>1207</v>
+        <v>1277</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -8485,25 +8515,25 @@
         <v>1362</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="D123" t="s">
-        <v>514</v>
+        <v>615</v>
       </c>
       <c r="E123" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
       <c r="F123" t="s">
-        <v>981</v>
+        <v>1076</v>
       </c>
       <c r="G123" s="1">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="H123" t="s">
-        <v>1208</v>
+        <v>1298</v>
       </c>
       <c r="I123" s="1">
         <v>0</v>
@@ -8514,25 +8544,25 @@
         <v>1362</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="D124" t="s">
-        <v>515</v>
+        <v>617</v>
       </c>
       <c r="E124" t="s">
-        <v>753</v>
+        <v>849</v>
       </c>
       <c r="F124" t="s">
-        <v>982</v>
+        <v>1078</v>
       </c>
       <c r="G124" s="1">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="H124" t="s">
-        <v>1209</v>
+        <v>1300</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
@@ -8543,25 +8573,25 @@
         <v>1362</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C125" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="D125" t="s">
-        <v>516</v>
+        <v>619</v>
       </c>
       <c r="E125" t="s">
-        <v>754</v>
+        <v>851</v>
       </c>
       <c r="F125" t="s">
-        <v>983</v>
+        <v>1080</v>
       </c>
       <c r="G125" s="1">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="H125" t="s">
-        <v>1210</v>
+        <v>1302</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -8572,25 +8602,25 @@
         <v>1362</v>
       </c>
       <c r="B126" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="D126" t="s">
-        <v>517</v>
+        <v>629</v>
       </c>
       <c r="E126" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="F126" t="s">
-        <v>984</v>
+        <v>1090</v>
       </c>
       <c r="G126" s="1">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="H126" t="s">
-        <v>1211</v>
+        <v>1311</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
@@ -8601,25 +8631,25 @@
         <v>1362</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>518</v>
+        <v>416</v>
       </c>
       <c r="E127" t="s">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="F127" t="s">
-        <v>985</v>
+        <v>896</v>
       </c>
       <c r="G127" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>1212</v>
+        <v>1126</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
@@ -8630,25 +8660,25 @@
         <v>1362</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="D128" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E128" t="s">
-        <v>757</v>
+        <v>667</v>
       </c>
       <c r="F128" t="s">
-        <v>986</v>
+        <v>896</v>
       </c>
       <c r="G128" s="1">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>1213</v>
+        <v>1126</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
@@ -8659,25 +8689,25 @@
         <v>1362</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="D129" t="s">
-        <v>520</v>
+        <v>416</v>
       </c>
       <c r="E129" t="s">
-        <v>758</v>
+        <v>667</v>
       </c>
       <c r="F129" t="s">
-        <v>987</v>
+        <v>896</v>
       </c>
       <c r="G129" s="1">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="H129" t="s">
-        <v>1353</v>
+        <v>1126</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -8688,25 +8718,25 @@
         <v>1362</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="D130" t="s">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="E130" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
       <c r="F130" t="s">
-        <v>988</v>
+        <v>896</v>
       </c>
       <c r="G130" s="1">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>1214</v>
+        <v>1126</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
@@ -8717,25 +8747,25 @@
         <v>1362</v>
       </c>
       <c r="B131" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="D131" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="E131" t="s">
-        <v>760</v>
+        <v>667</v>
       </c>
       <c r="F131" t="s">
-        <v>989</v>
+        <v>896</v>
       </c>
       <c r="G131" s="1">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="H131" t="s">
-        <v>1354</v>
+        <v>1126</v>
       </c>
       <c r="I131" s="1">
         <v>0</v>
@@ -8746,25 +8776,25 @@
         <v>1362</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D132" t="s">
-        <v>523</v>
+        <v>417</v>
       </c>
       <c r="E132" t="s">
-        <v>761</v>
+        <v>667</v>
       </c>
       <c r="F132" t="s">
-        <v>990</v>
+        <v>896</v>
       </c>
       <c r="G132" s="1">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="H132" t="s">
-        <v>1216</v>
+        <v>1126</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
@@ -8775,25 +8805,25 @@
         <v>1362</v>
       </c>
       <c r="B133" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D133" t="s">
-        <v>524</v>
+        <v>417</v>
       </c>
       <c r="E133" t="s">
-        <v>762</v>
+        <v>667</v>
       </c>
       <c r="F133" t="s">
-        <v>991</v>
+        <v>896</v>
       </c>
       <c r="G133" s="1">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>1217</v>
+        <v>1126</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -8804,25 +8834,25 @@
         <v>1362</v>
       </c>
       <c r="B134" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="D134" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="E134" t="s">
-        <v>763</v>
+        <v>667</v>
       </c>
       <c r="F134" t="s">
-        <v>992</v>
+        <v>896</v>
       </c>
       <c r="G134" s="1">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>1218</v>
+        <v>1126</v>
       </c>
       <c r="I134" s="1">
         <v>0</v>
@@ -8833,25 +8863,25 @@
         <v>1362</v>
       </c>
       <c r="B135" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="D135" t="s">
-        <v>526</v>
+        <v>417</v>
       </c>
       <c r="E135" t="s">
-        <v>764</v>
+        <v>667</v>
       </c>
       <c r="F135" t="s">
-        <v>993</v>
+        <v>896</v>
       </c>
       <c r="G135" s="1">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>1219</v>
+        <v>1126</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -8862,25 +8892,25 @@
         <v>1362</v>
       </c>
       <c r="B136" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>527</v>
+        <v>417</v>
       </c>
       <c r="E136" t="s">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="F136" t="s">
-        <v>994</v>
+        <v>896</v>
       </c>
       <c r="G136" s="1">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>1220</v>
+        <v>1126</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -8891,25 +8921,25 @@
         <v>1362</v>
       </c>
       <c r="B137" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="D137" t="s">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="E137" t="s">
-        <v>766</v>
+        <v>679</v>
       </c>
       <c r="F137" t="s">
-        <v>995</v>
+        <v>908</v>
       </c>
       <c r="G137" s="1">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="H137" t="s">
-        <v>1221</v>
+        <v>1138</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -8920,25 +8950,25 @@
         <v>1362</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="D138" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="E138" t="s">
-        <v>767</v>
+        <v>685</v>
       </c>
       <c r="F138" t="s">
-        <v>996</v>
+        <v>914</v>
       </c>
       <c r="G138" s="1">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="H138" t="s">
-        <v>1222</v>
+        <v>1144</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
@@ -8949,25 +8979,25 @@
         <v>1362</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="D139" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="E139" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="F139" t="s">
-        <v>997</v>
+        <v>948</v>
       </c>
       <c r="G139" s="1">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="H139" t="s">
-        <v>1352</v>
+        <v>1175</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
@@ -8978,25 +9008,25 @@
         <v>1362</v>
       </c>
       <c r="B140" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C140" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="D140" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="E140" t="s">
-        <v>769</v>
+        <v>724</v>
       </c>
       <c r="F140" t="s">
-        <v>998</v>
+        <v>953</v>
       </c>
       <c r="G140" s="1">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="H140" t="s">
-        <v>1223</v>
+        <v>1180</v>
       </c>
       <c r="I140" s="1">
         <v>0</v>
@@ -9007,25 +9037,25 @@
         <v>1362</v>
       </c>
       <c r="B141" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C141" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="D141" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="E141" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="F141" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="G141" s="1">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="H141" t="s">
-        <v>1224</v>
+        <v>1196</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -9036,25 +9066,25 @@
         <v>1362</v>
       </c>
       <c r="B142" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C142" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D142" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="E142" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F142" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="G142" s="1">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H142" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -9094,25 +9124,25 @@
         <v>1362</v>
       </c>
       <c r="B144" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C144" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="D144" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="E144" t="s">
-        <v>773</v>
+        <v>817</v>
       </c>
       <c r="F144" t="s">
-        <v>1002</v>
+        <v>1046</v>
       </c>
       <c r="G144" s="1">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="H144" t="s">
-        <v>1227</v>
+        <v>1270</v>
       </c>
       <c r="I144" s="1">
         <v>0</v>
@@ -9123,25 +9153,25 @@
         <v>1362</v>
       </c>
       <c r="B145" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C145" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="D145" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="E145" t="s">
-        <v>774</v>
+        <v>830</v>
       </c>
       <c r="F145" t="s">
-        <v>1003</v>
+        <v>1059</v>
       </c>
       <c r="G145" s="1">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="H145" t="s">
-        <v>1228</v>
+        <v>1283</v>
       </c>
       <c r="I145" s="1">
         <v>0</v>
@@ -9152,25 +9182,25 @@
         <v>1362</v>
       </c>
       <c r="B146" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C146" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="D146" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="E146" t="s">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="F146" t="s">
-        <v>1003</v>
+        <v>1067</v>
       </c>
       <c r="G146" s="1">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="H146" t="s">
-        <v>1228</v>
+        <v>1290</v>
       </c>
       <c r="I146" s="1">
         <v>0</v>
@@ -9181,25 +9211,25 @@
         <v>1362</v>
       </c>
       <c r="B147" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="D147" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="E147" t="s">
-        <v>775</v>
+        <v>841</v>
       </c>
       <c r="F147" t="s">
-        <v>1004</v>
+        <v>1070</v>
       </c>
       <c r="G147" s="1">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="H147" t="s">
-        <v>1229</v>
+        <v>1293</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
@@ -9210,25 +9240,25 @@
         <v>1362</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C148" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="D148" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="E148" t="s">
-        <v>776</v>
+        <v>845</v>
       </c>
       <c r="F148" t="s">
-        <v>1005</v>
+        <v>1074</v>
       </c>
       <c r="G148" s="1">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="H148" t="s">
-        <v>1230</v>
+        <v>1296</v>
       </c>
       <c r="I148" s="1">
         <v>0</v>
@@ -9239,25 +9269,25 @@
         <v>1362</v>
       </c>
       <c r="B149" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="C149" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="D149" t="s">
-        <v>540</v>
+        <v>636</v>
       </c>
       <c r="E149" t="s">
-        <v>777</v>
+        <v>867</v>
       </c>
       <c r="F149" t="s">
-        <v>1006</v>
+        <v>1096</v>
       </c>
       <c r="G149" s="1">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="H149" t="s">
-        <v>1231</v>
+        <v>1317</v>
       </c>
       <c r="I149" s="1">
         <v>0</v>
@@ -9268,25 +9298,25 @@
         <v>1362</v>
       </c>
       <c r="B150" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="D150" t="s">
-        <v>541</v>
+        <v>644</v>
       </c>
       <c r="E150" t="s">
-        <v>777</v>
+        <v>875</v>
       </c>
       <c r="F150" t="s">
-        <v>1006</v>
+        <v>1104</v>
       </c>
       <c r="G150" s="1">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="H150" t="s">
-        <v>1231</v>
+        <v>1324</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -9297,25 +9327,25 @@
         <v>1362</v>
       </c>
       <c r="B151" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="D151" t="s">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="E151" t="s">
-        <v>778</v>
+        <v>881</v>
       </c>
       <c r="F151" t="s">
-        <v>1007</v>
+        <v>1110</v>
       </c>
       <c r="G151" s="1">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H151" t="s">
-        <v>1232</v>
+        <v>1330</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -9326,25 +9356,25 @@
         <v>1362</v>
       </c>
       <c r="B152" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="D152" t="s">
-        <v>543</v>
+        <v>656</v>
       </c>
       <c r="E152" t="s">
-        <v>779</v>
+        <v>887</v>
       </c>
       <c r="F152" t="s">
-        <v>1008</v>
+        <v>1116</v>
       </c>
       <c r="G152" s="1">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="H152" t="s">
-        <v>1233</v>
+        <v>1336</v>
       </c>
       <c r="I152" s="1">
         <v>0</v>
@@ -9355,25 +9385,25 @@
         <v>1362</v>
       </c>
       <c r="B153" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="D153" t="s">
-        <v>544</v>
+        <v>662</v>
       </c>
       <c r="E153" t="s">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="F153" t="s">
-        <v>1009</v>
+        <v>1120</v>
       </c>
       <c r="G153" s="1">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="H153" t="s">
-        <v>1234</v>
+        <v>1340</v>
       </c>
       <c r="I153" s="1">
         <v>0</v>
@@ -9384,25 +9414,25 @@
         <v>1362</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="D154" t="s">
-        <v>545</v>
+        <v>662</v>
       </c>
       <c r="E154" t="s">
-        <v>781</v>
+        <v>891</v>
       </c>
       <c r="F154" t="s">
-        <v>1010</v>
+        <v>1120</v>
       </c>
       <c r="G154" s="1">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="H154" t="s">
-        <v>1235</v>
+        <v>1340</v>
       </c>
       <c r="I154" s="1">
         <v>0</v>
@@ -9413,25 +9443,25 @@
         <v>1362</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="D155" t="s">
-        <v>546</v>
+        <v>415</v>
       </c>
       <c r="E155" t="s">
-        <v>782</v>
+        <v>666</v>
       </c>
       <c r="F155" t="s">
-        <v>1011</v>
+        <v>895</v>
       </c>
       <c r="G155" s="1">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>1236</v>
+        <v>1125</v>
       </c>
       <c r="I155" s="1">
         <v>0</v>
@@ -9442,25 +9472,25 @@
         <v>1362</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="D156" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
       <c r="E156" t="s">
-        <v>783</v>
+        <v>666</v>
       </c>
       <c r="F156" t="s">
-        <v>1012</v>
+        <v>895</v>
       </c>
       <c r="G156" s="1">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="H156" t="s">
-        <v>1237</v>
+        <v>1125</v>
       </c>
       <c r="I156" s="1">
         <v>0</v>
@@ -9471,25 +9501,25 @@
         <v>1362</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="D157" t="s">
-        <v>548</v>
+        <v>415</v>
       </c>
       <c r="E157" t="s">
-        <v>784</v>
+        <v>666</v>
       </c>
       <c r="F157" t="s">
-        <v>1013</v>
+        <v>895</v>
       </c>
       <c r="G157" s="1">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>1238</v>
+        <v>1125</v>
       </c>
       <c r="I157" s="1">
         <v>0</v>
@@ -9500,25 +9530,25 @@
         <v>1362</v>
       </c>
       <c r="B158" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="D158" t="s">
-        <v>549</v>
+        <v>415</v>
       </c>
       <c r="E158" t="s">
-        <v>784</v>
+        <v>666</v>
       </c>
       <c r="F158" t="s">
-        <v>1013</v>
+        <v>895</v>
       </c>
       <c r="G158" s="1">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>1238</v>
+        <v>1125</v>
       </c>
       <c r="I158" s="1">
         <v>0</v>
@@ -9529,25 +9559,25 @@
         <v>1362</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="D159" t="s">
-        <v>550</v>
+        <v>419</v>
       </c>
       <c r="E159" t="s">
-        <v>784</v>
+        <v>669</v>
       </c>
       <c r="F159" t="s">
-        <v>1013</v>
+        <v>898</v>
       </c>
       <c r="G159" s="1">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="H159" t="s">
-        <v>1238</v>
+        <v>1128</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -9558,25 +9588,25 @@
         <v>1362</v>
       </c>
       <c r="B160" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="D160" t="s">
-        <v>551</v>
+        <v>419</v>
       </c>
       <c r="E160" t="s">
-        <v>785</v>
+        <v>669</v>
       </c>
       <c r="F160" t="s">
-        <v>1014</v>
+        <v>898</v>
       </c>
       <c r="G160" s="1">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="H160" t="s">
-        <v>1239</v>
+        <v>1128</v>
       </c>
       <c r="I160" s="1">
         <v>0</v>
@@ -9587,25 +9617,25 @@
         <v>1362</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="D161" t="s">
-        <v>552</v>
+        <v>422</v>
       </c>
       <c r="E161" t="s">
-        <v>786</v>
+        <v>672</v>
       </c>
       <c r="F161" t="s">
-        <v>1015</v>
+        <v>901</v>
       </c>
       <c r="G161" s="1">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="H161" t="s">
-        <v>1240</v>
+        <v>1131</v>
       </c>
       <c r="I161" s="1">
         <v>0</v>
@@ -9616,25 +9646,25 @@
         <v>1362</v>
       </c>
       <c r="B162" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="D162" t="s">
-        <v>553</v>
+        <v>425</v>
       </c>
       <c r="E162" t="s">
-        <v>787</v>
+        <v>674</v>
       </c>
       <c r="F162" t="s">
-        <v>1016</v>
+        <v>903</v>
       </c>
       <c r="G162" s="1">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="H162" t="s">
-        <v>1241</v>
+        <v>1133</v>
       </c>
       <c r="I162" s="1">
         <v>0</v>
@@ -9645,25 +9675,25 @@
         <v>1362</v>
       </c>
       <c r="B163" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C163" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="D163" t="s">
-        <v>554</v>
+        <v>440</v>
       </c>
       <c r="E163" t="s">
-        <v>788</v>
+        <v>686</v>
       </c>
       <c r="F163" t="s">
-        <v>1017</v>
+        <v>915</v>
       </c>
       <c r="G163" s="1">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="H163" t="s">
-        <v>1242</v>
+        <v>1145</v>
       </c>
       <c r="I163" s="1">
         <v>0</v>
@@ -9674,25 +9704,25 @@
         <v>1362</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C164" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="D164" t="s">
-        <v>555</v>
+        <v>442</v>
       </c>
       <c r="E164" t="s">
-        <v>789</v>
+        <v>688</v>
       </c>
       <c r="F164" t="s">
-        <v>1018</v>
+        <v>917</v>
       </c>
       <c r="G164" s="1">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="H164" t="s">
-        <v>1243</v>
+        <v>1147</v>
       </c>
       <c r="I164" s="1">
         <v>0</v>
@@ -9703,25 +9733,25 @@
         <v>1362</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C165" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="D165" t="s">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="E165" t="s">
-        <v>790</v>
+        <v>690</v>
       </c>
       <c r="F165" t="s">
-        <v>1019</v>
+        <v>919</v>
       </c>
       <c r="G165" s="1">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="H165" t="s">
-        <v>1244</v>
+        <v>1149</v>
       </c>
       <c r="I165" s="1">
         <v>0</v>
@@ -9732,25 +9762,25 @@
         <v>1362</v>
       </c>
       <c r="B166" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>557</v>
+        <v>447</v>
       </c>
       <c r="E166" t="s">
-        <v>791</v>
+        <v>693</v>
       </c>
       <c r="F166" t="s">
-        <v>1020</v>
+        <v>922</v>
       </c>
       <c r="G166" s="1">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="H166" t="s">
-        <v>1352</v>
+        <v>1152</v>
       </c>
       <c r="I166" s="1">
         <v>0</v>
@@ -9761,25 +9791,25 @@
         <v>1362</v>
       </c>
       <c r="B167" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C167" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="D167" t="s">
-        <v>558</v>
+        <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>792</v>
+        <v>704</v>
       </c>
       <c r="F167" t="s">
-        <v>1021</v>
+        <v>933</v>
       </c>
       <c r="G167" s="1">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="H167" t="s">
-        <v>1245</v>
+        <v>1160</v>
       </c>
       <c r="I167" s="1">
         <v>0</v>
@@ -9790,25 +9820,25 @@
         <v>1362</v>
       </c>
       <c r="B168" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C168" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="D168" t="s">
-        <v>559</v>
+        <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>793</v>
+        <v>704</v>
       </c>
       <c r="F168" t="s">
-        <v>1022</v>
+        <v>933</v>
       </c>
       <c r="G168" s="1">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="H168" t="s">
-        <v>1246</v>
+        <v>1160</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -9819,25 +9849,25 @@
         <v>1362</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="C169" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="D169" t="s">
-        <v>559</v>
+        <v>463</v>
       </c>
       <c r="E169" t="s">
-        <v>793</v>
+        <v>707</v>
       </c>
       <c r="F169" t="s">
-        <v>1022</v>
+        <v>936</v>
       </c>
       <c r="G169" s="1">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="H169" t="s">
-        <v>1246</v>
+        <v>1163</v>
       </c>
       <c r="I169" s="1">
         <v>0</v>
@@ -9848,25 +9878,25 @@
         <v>1362</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C170" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="D170" t="s">
-        <v>560</v>
+        <v>469</v>
       </c>
       <c r="E170" t="s">
-        <v>794</v>
+        <v>713</v>
       </c>
       <c r="F170" t="s">
-        <v>1023</v>
+        <v>942</v>
       </c>
       <c r="G170" s="1">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="H170" t="s">
-        <v>1247</v>
+        <v>1169</v>
       </c>
       <c r="I170" s="1">
         <v>0</v>
@@ -9877,25 +9907,25 @@
         <v>1362</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="D171" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="E171" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
       <c r="F171" t="s">
-        <v>1024</v>
+        <v>944</v>
       </c>
       <c r="G171" s="1">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="H171" t="s">
-        <v>1248</v>
+        <v>1171</v>
       </c>
       <c r="I171" s="1">
         <v>0</v>
@@ -9906,25 +9936,25 @@
         <v>1362</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C172" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="D172" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="E172" t="s">
-        <v>796</v>
+        <v>725</v>
       </c>
       <c r="F172" t="s">
-        <v>1025</v>
+        <v>954</v>
       </c>
       <c r="G172" s="1">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="H172" t="s">
-        <v>1249</v>
+        <v>1181</v>
       </c>
       <c r="I172" s="1">
         <v>0</v>
@@ -9935,25 +9965,25 @@
         <v>1362</v>
       </c>
       <c r="B173" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C173" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="D173" t="s">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="E173" t="s">
-        <v>797</v>
+        <v>729</v>
       </c>
       <c r="F173" t="s">
-        <v>1026</v>
+        <v>958</v>
       </c>
       <c r="G173" s="1">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="H173" t="s">
-        <v>1250</v>
+        <v>1185</v>
       </c>
       <c r="I173" s="1">
         <v>0</v>
@@ -9964,25 +9994,25 @@
         <v>1362</v>
       </c>
       <c r="B174" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C174" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="D174" t="s">
-        <v>564</v>
+        <v>492</v>
       </c>
       <c r="E174" t="s">
-        <v>798</v>
+        <v>735</v>
       </c>
       <c r="F174" t="s">
-        <v>1027</v>
+        <v>964</v>
       </c>
       <c r="G174" s="1">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="H174" t="s">
-        <v>1251</v>
+        <v>1191</v>
       </c>
       <c r="I174" s="1">
         <v>0</v>
@@ -9993,25 +10023,25 @@
         <v>1362</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C175" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="D175" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
       <c r="E175" t="s">
-        <v>799</v>
+        <v>737</v>
       </c>
       <c r="F175" t="s">
-        <v>1028</v>
+        <v>966</v>
       </c>
       <c r="G175" s="1">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="H175" t="s">
-        <v>1252</v>
+        <v>1193</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -10022,25 +10052,25 @@
         <v>1362</v>
       </c>
       <c r="B176" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C176" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="D176" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="E176" t="s">
-        <v>800</v>
+        <v>744</v>
       </c>
       <c r="F176" t="s">
-        <v>1029</v>
+        <v>973</v>
       </c>
       <c r="G176" s="1">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="H176" t="s">
-        <v>1253</v>
+        <v>1200</v>
       </c>
       <c r="I176" s="1">
         <v>0</v>
@@ -10051,25 +10081,25 @@
         <v>1362</v>
       </c>
       <c r="B177" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C177" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="D177" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="E177" t="s">
-        <v>801</v>
+        <v>748</v>
       </c>
       <c r="F177" t="s">
-        <v>1030</v>
+        <v>977</v>
       </c>
       <c r="G177" s="1">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="H177" t="s">
-        <v>1254</v>
+        <v>1204</v>
       </c>
       <c r="I177" s="1">
         <v>0</v>
@@ -10080,25 +10110,25 @@
         <v>1362</v>
       </c>
       <c r="B178" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C178" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="D178" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="E178" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
       <c r="F178" t="s">
-        <v>1031</v>
+        <v>980</v>
       </c>
       <c r="G178" s="1">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="H178" t="s">
-        <v>1255</v>
+        <v>1207</v>
       </c>
       <c r="I178" s="1">
         <v>0</v>
@@ -10109,25 +10139,25 @@
         <v>1362</v>
       </c>
       <c r="B179" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C179" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="D179" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="E179" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="F179" t="s">
-        <v>1032</v>
+        <v>992</v>
       </c>
       <c r="G179" s="1">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="H179" t="s">
-        <v>1256</v>
+        <v>1218</v>
       </c>
       <c r="I179" s="1">
         <v>0</v>
@@ -10138,25 +10168,25 @@
         <v>1362</v>
       </c>
       <c r="B180" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C180" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D180" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="E180" t="s">
-        <v>804</v>
+        <v>767</v>
       </c>
       <c r="F180" t="s">
-        <v>1033</v>
+        <v>996</v>
       </c>
       <c r="G180" s="1">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="H180" t="s">
-        <v>1257</v>
+        <v>1222</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -10167,25 +10197,25 @@
         <v>1362</v>
       </c>
       <c r="B181" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C181" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D181" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="E181" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="F181" t="s">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="G181" s="1">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="H181" t="s">
-        <v>1257</v>
+        <v>1227</v>
       </c>
       <c r="I181" s="1">
         <v>0</v>
@@ -10196,25 +10226,25 @@
         <v>1362</v>
       </c>
       <c r="B182" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C182" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D182" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="E182" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="F182" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="G182" s="1">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="H182" t="s">
-        <v>1257</v>
+        <v>1231</v>
       </c>
       <c r="I182" s="1">
         <v>0</v>
@@ -10225,25 +10255,25 @@
         <v>1362</v>
       </c>
       <c r="B183" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C183" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D183" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="E183" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="F183" t="s">
-        <v>1034</v>
+        <v>1006</v>
       </c>
       <c r="G183" s="1">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="H183" t="s">
-        <v>1258</v>
+        <v>1231</v>
       </c>
       <c r="I183" s="1">
         <v>0</v>
@@ -10254,25 +10284,25 @@
         <v>1362</v>
       </c>
       <c r="B184" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C184" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D184" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="E184" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="F184" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="G184" s="1">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="H184" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="I184" s="1">
         <v>0</v>
@@ -10283,25 +10313,25 @@
         <v>1362</v>
       </c>
       <c r="B185" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C185" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D185" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="E185" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="F185" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="G185" s="1">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H185" t="s">
-        <v>1260</v>
+        <v>1242</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
@@ -10312,25 +10342,25 @@
         <v>1362</v>
       </c>
       <c r="B186" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C186" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D186" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="E186" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="F186" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="G186" s="1">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H186" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
@@ -10341,25 +10371,25 @@
         <v>1362</v>
       </c>
       <c r="B187" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C187" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D187" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="E187" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="F187" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="G187" s="1">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H187" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="I187" s="1">
         <v>0</v>
@@ -10370,25 +10400,25 @@
         <v>1362</v>
       </c>
       <c r="B188" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C188" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D188" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="E188" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="F188" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="G188" s="1">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H188" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="I188" s="1">
         <v>0</v>
@@ -10399,25 +10429,25 @@
         <v>1362</v>
       </c>
       <c r="B189" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C189" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D189" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="E189" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F189" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="G189" s="1">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H189" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="I189" s="1">
         <v>0</v>
@@ -10428,25 +10458,25 @@
         <v>1362</v>
       </c>
       <c r="B190" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C190" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D190" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E190" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F190" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="G190" s="1">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H190" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -10463,19 +10493,19 @@
         <v>348</v>
       </c>
       <c r="D191" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E191" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F191" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G191" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H191" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I191" s="1">
         <v>0</v>
@@ -10515,25 +10545,25 @@
         <v>1362</v>
       </c>
       <c r="B193" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C193" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D193" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E193" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="F193" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="G193" s="1">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H193" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="I193" s="1">
         <v>0</v>
@@ -10544,25 +10574,25 @@
         <v>1362</v>
       </c>
       <c r="B194" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C194" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D194" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="E194" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="F194" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="G194" s="1">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H194" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
       <c r="I194" s="1">
         <v>0</v>
@@ -10573,25 +10603,25 @@
         <v>1362</v>
       </c>
       <c r="B195" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="D195" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="E195" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="F195" t="s">
-        <v>1046</v>
+        <v>1089</v>
       </c>
       <c r="G195" s="1">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="H195" t="s">
-        <v>1270</v>
+        <v>1310</v>
       </c>
       <c r="I195" s="1">
         <v>0</v>
@@ -10602,25 +10632,25 @@
         <v>1362</v>
       </c>
       <c r="B196" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C196" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="D196" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="E196" t="s">
-        <v>818</v>
+        <v>866</v>
       </c>
       <c r="F196" t="s">
-        <v>1047</v>
+        <v>1095</v>
       </c>
       <c r="G196" s="1">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="H196" t="s">
-        <v>1271</v>
+        <v>1316</v>
       </c>
       <c r="I196" s="1">
         <v>0</v>
@@ -10631,25 +10661,25 @@
         <v>1362</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="D197" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="E197" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
       <c r="F197" t="s">
-        <v>1048</v>
+        <v>1099</v>
       </c>
       <c r="G197" s="1">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="H197" t="s">
-        <v>1272</v>
+        <v>1320</v>
       </c>
       <c r="I197" s="1">
         <v>0</v>
@@ -10660,25 +10690,25 @@
         <v>1362</v>
       </c>
       <c r="B198" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="D198" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="E198" t="s">
-        <v>820</v>
+        <v>877</v>
       </c>
       <c r="F198" t="s">
-        <v>1049</v>
+        <v>1106</v>
       </c>
       <c r="G198" s="1">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="H198" t="s">
-        <v>1273</v>
+        <v>1326</v>
       </c>
       <c r="I198" s="1">
         <v>0</v>
@@ -10689,25 +10719,25 @@
         <v>1362</v>
       </c>
       <c r="B199" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="D199" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="E199" t="s">
-        <v>821</v>
+        <v>886</v>
       </c>
       <c r="F199" t="s">
-        <v>1050</v>
+        <v>1115</v>
       </c>
       <c r="G199" s="1">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="H199" t="s">
-        <v>1274</v>
+        <v>1335</v>
       </c>
       <c r="I199" s="1">
         <v>0</v>
@@ -10718,25 +10748,25 @@
         <v>1362</v>
       </c>
       <c r="B200" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="D200" t="s">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="E200" t="s">
-        <v>822</v>
+        <v>670</v>
       </c>
       <c r="F200" t="s">
-        <v>1051</v>
+        <v>899</v>
       </c>
       <c r="G200" s="1">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="H200" t="s">
-        <v>1275</v>
+        <v>1129</v>
       </c>
       <c r="I200" s="1">
         <v>0</v>
@@ -10747,25 +10777,25 @@
         <v>1362</v>
       </c>
       <c r="B201" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C201" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
       <c r="D201" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
       <c r="E201" t="s">
-        <v>823</v>
+        <v>709</v>
       </c>
       <c r="F201" t="s">
-        <v>1052</v>
+        <v>938</v>
       </c>
       <c r="G201" s="1">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="H201" t="s">
-        <v>1276</v>
+        <v>1165</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
@@ -10776,25 +10806,25 @@
         <v>1362</v>
       </c>
       <c r="B202" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="D202" t="s">
-        <v>592</v>
+        <v>472</v>
       </c>
       <c r="E202" t="s">
-        <v>824</v>
+        <v>716</v>
       </c>
       <c r="F202" t="s">
-        <v>1053</v>
+        <v>945</v>
       </c>
       <c r="G202" s="1">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="H202" t="s">
-        <v>1277</v>
+        <v>1172</v>
       </c>
       <c r="I202" s="1">
         <v>0</v>
@@ -10805,25 +10835,25 @@
         <v>1362</v>
       </c>
       <c r="B203" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="C203" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="D203" t="s">
-        <v>593</v>
+        <v>477</v>
       </c>
       <c r="E203" t="s">
-        <v>825</v>
+        <v>721</v>
       </c>
       <c r="F203" t="s">
-        <v>1054</v>
+        <v>950</v>
       </c>
       <c r="G203" s="1">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="H203" t="s">
-        <v>1278</v>
+        <v>1177</v>
       </c>
       <c r="I203" s="1">
         <v>0</v>
@@ -10834,25 +10864,25 @@
         <v>1362</v>
       </c>
       <c r="B204" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="C204" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="D204" t="s">
-        <v>594</v>
+        <v>477</v>
       </c>
       <c r="E204" t="s">
-        <v>826</v>
+        <v>721</v>
       </c>
       <c r="F204" t="s">
-        <v>1055</v>
+        <v>950</v>
       </c>
       <c r="G204" s="1">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="H204" t="s">
-        <v>1279</v>
+        <v>1177</v>
       </c>
       <c r="I204" s="1">
         <v>0</v>
@@ -10863,25 +10893,25 @@
         <v>1362</v>
       </c>
       <c r="B205" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="C205" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="D205" t="s">
-        <v>594</v>
+        <v>479</v>
       </c>
       <c r="E205" t="s">
-        <v>826</v>
+        <v>723</v>
       </c>
       <c r="F205" t="s">
-        <v>1055</v>
+        <v>952</v>
       </c>
       <c r="G205" s="1">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="H205" t="s">
-        <v>1279</v>
+        <v>1179</v>
       </c>
       <c r="I205" s="1">
         <v>0</v>
@@ -10892,25 +10922,25 @@
         <v>1362</v>
       </c>
       <c r="B206" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C206" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="D206" t="s">
-        <v>595</v>
+        <v>484</v>
       </c>
       <c r="E206" t="s">
-        <v>827</v>
+        <v>728</v>
       </c>
       <c r="F206" t="s">
-        <v>1056</v>
+        <v>957</v>
       </c>
       <c r="G206" s="1">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="H206" t="s">
-        <v>1280</v>
+        <v>1184</v>
       </c>
       <c r="I206" s="1">
         <v>0</v>
@@ -10921,25 +10951,25 @@
         <v>1362</v>
       </c>
       <c r="B207" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="C207" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="D207" t="s">
-        <v>595</v>
+        <v>491</v>
       </c>
       <c r="E207" t="s">
-        <v>827</v>
+        <v>734</v>
       </c>
       <c r="F207" t="s">
-        <v>1056</v>
+        <v>963</v>
       </c>
       <c r="G207" s="1">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="H207" t="s">
-        <v>1280</v>
+        <v>1190</v>
       </c>
       <c r="I207" s="1">
         <v>0</v>
@@ -10950,25 +10980,25 @@
         <v>1362</v>
       </c>
       <c r="B208" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C208" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D208" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E208" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F208" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G208" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H208" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="I208" s="1">
         <v>0</v>
@@ -10979,25 +11009,25 @@
         <v>1362</v>
       </c>
       <c r="B209" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C209" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="D209" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="E209" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="F209" t="s">
-        <v>1058</v>
+        <v>1083</v>
       </c>
       <c r="G209" s="1">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="H209" t="s">
-        <v>1282</v>
+        <v>1305</v>
       </c>
       <c r="I209" s="1">
         <v>0</v>
@@ -11008,25 +11038,25 @@
         <v>1362</v>
       </c>
       <c r="B210" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C210" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="D210" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="E210" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="F210" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
       <c r="G210" s="1">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="H210" t="s">
-        <v>1283</v>
+        <v>1318</v>
       </c>
       <c r="I210" s="1">
         <v>0</v>
@@ -11037,25 +11067,25 @@
         <v>1362</v>
       </c>
       <c r="B211" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C211" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="D211" t="s">
-        <v>599</v>
+        <v>640</v>
       </c>
       <c r="E211" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="F211" t="s">
-        <v>1060</v>
+        <v>1100</v>
       </c>
       <c r="G211" s="1">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="H211" t="s">
-        <v>1284</v>
+        <v>1321</v>
       </c>
       <c r="I211" s="1">
         <v>0</v>
@@ -11066,25 +11096,25 @@
         <v>1362</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="D212" t="s">
-        <v>600</v>
+        <v>641</v>
       </c>
       <c r="E212" t="s">
-        <v>832</v>
+        <v>872</v>
       </c>
       <c r="F212" t="s">
-        <v>1061</v>
+        <v>1101</v>
       </c>
       <c r="G212" s="1">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="H212" t="s">
-        <v>1285</v>
+        <v>1321</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -11095,25 +11125,25 @@
         <v>1362</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="D213" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="E213" t="s">
-        <v>833</v>
+        <v>872</v>
       </c>
       <c r="F213" t="s">
-        <v>1062</v>
+        <v>1101</v>
       </c>
       <c r="G213" s="1">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="H213" t="s">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="I213" s="1">
         <v>0</v>
@@ -11124,25 +11154,25 @@
         <v>1362</v>
       </c>
       <c r="B214" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C214" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="D214" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="E214" t="s">
-        <v>834</v>
+        <v>874</v>
       </c>
       <c r="F214" t="s">
-        <v>1063</v>
+        <v>1103</v>
       </c>
       <c r="G214" s="1">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="H214" t="s">
-        <v>1287</v>
+        <v>1323</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
@@ -11153,25 +11183,25 @@
         <v>1362</v>
       </c>
       <c r="B215" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C215" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="D215" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="E215" t="s">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="F215" t="s">
-        <v>1064</v>
+        <v>1108</v>
       </c>
       <c r="G215" s="1">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="H215" t="s">
-        <v>1288</v>
+        <v>1328</v>
       </c>
       <c r="I215" s="1">
         <v>0</v>
@@ -11182,25 +11212,25 @@
         <v>1362</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="D216" t="s">
-        <v>604</v>
+        <v>427</v>
       </c>
       <c r="E216" t="s">
-        <v>836</v>
+        <v>676</v>
       </c>
       <c r="F216" t="s">
-        <v>1065</v>
+        <v>905</v>
       </c>
       <c r="G216" s="1">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="H216" t="s">
-        <v>1289</v>
+        <v>1135</v>
       </c>
       <c r="I216" s="1">
         <v>0</v>
@@ -11211,25 +11241,25 @@
         <v>1362</v>
       </c>
       <c r="B217" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="C217" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="D217" t="s">
-        <v>605</v>
+        <v>429</v>
       </c>
       <c r="E217" t="s">
-        <v>837</v>
+        <v>678</v>
       </c>
       <c r="F217" t="s">
-        <v>1066</v>
+        <v>907</v>
       </c>
       <c r="G217" s="1">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="H217" t="s">
-        <v>1289</v>
+        <v>1137</v>
       </c>
       <c r="I217" s="1">
         <v>0</v>
@@ -11240,25 +11270,25 @@
         <v>1362</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="C218" t="s">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="D218" t="s">
-        <v>606</v>
+        <v>431</v>
       </c>
       <c r="E218" t="s">
-        <v>838</v>
+        <v>680</v>
       </c>
       <c r="F218" t="s">
-        <v>1067</v>
+        <v>909</v>
       </c>
       <c r="G218" s="1">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="H218" t="s">
-        <v>1290</v>
+        <v>1139</v>
       </c>
       <c r="I218" s="1">
         <v>0</v>
@@ -11269,25 +11299,25 @@
         <v>1362</v>
       </c>
       <c r="B219" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="C219" t="s">
-        <v>368</v>
+        <v>238</v>
       </c>
       <c r="D219" t="s">
-        <v>607</v>
+        <v>435</v>
       </c>
       <c r="E219" t="s">
-        <v>839</v>
+        <v>682</v>
       </c>
       <c r="F219" t="s">
-        <v>1068</v>
+        <v>911</v>
       </c>
       <c r="G219" s="1">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="H219" t="s">
-        <v>1291</v>
+        <v>1141</v>
       </c>
       <c r="I219" s="1">
         <v>0</v>
@@ -11298,25 +11328,25 @@
         <v>1362</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C220" t="s">
-        <v>368</v>
+        <v>245</v>
       </c>
       <c r="D220" t="s">
-        <v>607</v>
+        <v>443</v>
       </c>
       <c r="E220" t="s">
-        <v>839</v>
+        <v>689</v>
       </c>
       <c r="F220" t="s">
-        <v>1068</v>
+        <v>918</v>
       </c>
       <c r="G220" s="1">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="H220" t="s">
-        <v>1291</v>
+        <v>1148</v>
       </c>
       <c r="I220" s="1">
         <v>0</v>
@@ -11327,25 +11357,25 @@
         <v>1362</v>
       </c>
       <c r="B221" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="C221" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="D221" t="s">
-        <v>608</v>
+        <v>446</v>
       </c>
       <c r="E221" t="s">
-        <v>840</v>
+        <v>692</v>
       </c>
       <c r="F221" t="s">
-        <v>1069</v>
+        <v>921</v>
       </c>
       <c r="G221" s="1">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="H221" t="s">
-        <v>1292</v>
+        <v>1151</v>
       </c>
       <c r="I221" s="1">
         <v>0</v>
@@ -11356,25 +11386,25 @@
         <v>1362</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="C222" t="s">
-        <v>370</v>
+        <v>249</v>
       </c>
       <c r="D222" t="s">
-        <v>609</v>
+        <v>450</v>
       </c>
       <c r="E222" t="s">
-        <v>841</v>
+        <v>695</v>
       </c>
       <c r="F222" t="s">
-        <v>1070</v>
+        <v>924</v>
       </c>
       <c r="G222" s="1">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="H222" t="s">
-        <v>1293</v>
+        <v>1154</v>
       </c>
       <c r="I222" s="1">
         <v>0</v>
@@ -11385,25 +11415,25 @@
         <v>1362</v>
       </c>
       <c r="B223" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="C223" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="D223" t="s">
-        <v>610</v>
+        <v>453</v>
       </c>
       <c r="E223" t="s">
-        <v>842</v>
+        <v>698</v>
       </c>
       <c r="F223" t="s">
-        <v>1071</v>
+        <v>927</v>
       </c>
       <c r="G223" s="1">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="H223" t="s">
-        <v>1294</v>
+        <v>1157</v>
       </c>
       <c r="I223" s="1">
         <v>0</v>
@@ -11414,25 +11444,25 @@
         <v>1362</v>
       </c>
       <c r="B224" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C224" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="D224" t="s">
-        <v>611</v>
+        <v>453</v>
       </c>
       <c r="E224" t="s">
-        <v>843</v>
+        <v>698</v>
       </c>
       <c r="F224" t="s">
-        <v>1072</v>
+        <v>927</v>
       </c>
       <c r="G224" s="1">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="H224" t="s">
-        <v>1294</v>
+        <v>1157</v>
       </c>
       <c r="I224" s="1">
         <v>0</v>
@@ -11443,25 +11473,25 @@
         <v>1362</v>
       </c>
       <c r="B225" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="C225" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
       <c r="D225" t="s">
-        <v>612</v>
+        <v>454</v>
       </c>
       <c r="E225" t="s">
-        <v>844</v>
+        <v>699</v>
       </c>
       <c r="F225" t="s">
-        <v>1073</v>
+        <v>928</v>
       </c>
       <c r="G225" s="1">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="H225" t="s">
-        <v>1295</v>
+        <v>1157</v>
       </c>
       <c r="I225" s="1">
         <v>0</v>
@@ -11472,25 +11502,25 @@
         <v>1362</v>
       </c>
       <c r="B226" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="C226" t="s">
-        <v>374</v>
+        <v>252</v>
       </c>
       <c r="D226" t="s">
-        <v>613</v>
+        <v>455</v>
       </c>
       <c r="E226" t="s">
-        <v>845</v>
+        <v>700</v>
       </c>
       <c r="F226" t="s">
-        <v>1074</v>
+        <v>929</v>
       </c>
       <c r="G226" s="1">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="H226" t="s">
-        <v>1296</v>
+        <v>1157</v>
       </c>
       <c r="I226" s="1">
         <v>0</v>
@@ -11501,25 +11531,25 @@
         <v>1362</v>
       </c>
       <c r="B227" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="C227" t="s">
-        <v>375</v>
+        <v>252</v>
       </c>
       <c r="D227" t="s">
-        <v>614</v>
+        <v>456</v>
       </c>
       <c r="E227" t="s">
-        <v>846</v>
+        <v>701</v>
       </c>
       <c r="F227" t="s">
-        <v>1075</v>
+        <v>930</v>
       </c>
       <c r="G227" s="1">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="H227" t="s">
-        <v>1297</v>
+        <v>1157</v>
       </c>
       <c r="I227" s="1">
         <v>0</v>
@@ -11530,25 +11560,25 @@
         <v>1362</v>
       </c>
       <c r="B228" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C228" t="s">
-        <v>375</v>
+        <v>253</v>
       </c>
       <c r="D228" t="s">
-        <v>615</v>
+        <v>458</v>
       </c>
       <c r="E228" t="s">
-        <v>847</v>
+        <v>703</v>
       </c>
       <c r="F228" t="s">
-        <v>1076</v>
+        <v>932</v>
       </c>
       <c r="G228" s="1">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="H228" t="s">
-        <v>1298</v>
+        <v>1159</v>
       </c>
       <c r="I228" s="1">
         <v>0</v>
@@ -11559,25 +11589,25 @@
         <v>1362</v>
       </c>
       <c r="B229" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="C229" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D229" t="s">
-        <v>616</v>
+        <v>467</v>
       </c>
       <c r="E229" t="s">
-        <v>848</v>
+        <v>711</v>
       </c>
       <c r="F229" t="s">
-        <v>1077</v>
+        <v>940</v>
       </c>
       <c r="G229" s="1">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="H229" t="s">
-        <v>1299</v>
+        <v>1167</v>
       </c>
       <c r="I229" s="1">
         <v>0</v>
@@ -11588,25 +11618,25 @@
         <v>1362</v>
       </c>
       <c r="B230" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="C230" t="s">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="D230" t="s">
-        <v>617</v>
+        <v>474</v>
       </c>
       <c r="E230" t="s">
-        <v>849</v>
+        <v>718</v>
       </c>
       <c r="F230" t="s">
-        <v>1078</v>
+        <v>947</v>
       </c>
       <c r="G230" s="1">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="H230" t="s">
-        <v>1300</v>
+        <v>1174</v>
       </c>
       <c r="I230" s="1">
         <v>0</v>
@@ -11617,25 +11647,25 @@
         <v>1362</v>
       </c>
       <c r="B231" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="C231" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="D231" t="s">
-        <v>618</v>
+        <v>478</v>
       </c>
       <c r="E231" t="s">
-        <v>850</v>
+        <v>722</v>
       </c>
       <c r="F231" t="s">
-        <v>1079</v>
+        <v>951</v>
       </c>
       <c r="G231" s="1">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="H231" t="s">
-        <v>1301</v>
+        <v>1178</v>
       </c>
       <c r="I231" s="1">
         <v>0</v>
@@ -11646,25 +11676,25 @@
         <v>1362</v>
       </c>
       <c r="B232" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="C232" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="D232" t="s">
-        <v>619</v>
+        <v>483</v>
       </c>
       <c r="E232" t="s">
-        <v>851</v>
+        <v>727</v>
       </c>
       <c r="F232" t="s">
-        <v>1080</v>
+        <v>956</v>
       </c>
       <c r="G232" s="1">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="H232" t="s">
-        <v>1302</v>
+        <v>1183</v>
       </c>
       <c r="I232" s="1">
         <v>0</v>
@@ -11675,25 +11705,25 @@
         <v>1362</v>
       </c>
       <c r="B233" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="C233" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="D233" t="s">
-        <v>620</v>
+        <v>488</v>
       </c>
       <c r="E233" t="s">
-        <v>852</v>
+        <v>731</v>
       </c>
       <c r="F233" t="s">
-        <v>1081</v>
+        <v>960</v>
       </c>
       <c r="G233" s="1">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="H233" t="s">
-        <v>1303</v>
+        <v>1187</v>
       </c>
       <c r="I233" s="1">
         <v>0</v>
@@ -11704,25 +11734,25 @@
         <v>1362</v>
       </c>
       <c r="B234" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="C234" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="D234" t="s">
-        <v>621</v>
+        <v>490</v>
       </c>
       <c r="E234" t="s">
-        <v>853</v>
+        <v>733</v>
       </c>
       <c r="F234" t="s">
-        <v>1082</v>
+        <v>962</v>
       </c>
       <c r="G234" s="1">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="H234" t="s">
-        <v>1304</v>
+        <v>1189</v>
       </c>
       <c r="I234" s="1">
         <v>0</v>
@@ -11733,25 +11763,25 @@
         <v>1362</v>
       </c>
       <c r="B235" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C235" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="D235" t="s">
-        <v>622</v>
+        <v>500</v>
       </c>
       <c r="E235" t="s">
-        <v>854</v>
+        <v>739</v>
       </c>
       <c r="F235" t="s">
-        <v>1083</v>
+        <v>968</v>
       </c>
       <c r="G235" s="1">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="H235" t="s">
-        <v>1305</v>
+        <v>1195</v>
       </c>
       <c r="I235" s="1">
         <v>0</v>
@@ -11762,25 +11792,25 @@
         <v>1362</v>
       </c>
       <c r="B236" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="C236" t="s">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="D236" t="s">
-        <v>623</v>
+        <v>503</v>
       </c>
       <c r="E236" t="s">
-        <v>855</v>
+        <v>742</v>
       </c>
       <c r="F236" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="G236" s="1">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="H236" t="s">
-        <v>1306</v>
+        <v>1198</v>
       </c>
       <c r="I236" s="1">
         <v>0</v>
@@ -11791,25 +11821,25 @@
         <v>1362</v>
       </c>
       <c r="B237" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="C237" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="D237" t="s">
-        <v>624</v>
+        <v>519</v>
       </c>
       <c r="E237" t="s">
-        <v>856</v>
+        <v>757</v>
       </c>
       <c r="F237" t="s">
-        <v>1085</v>
+        <v>986</v>
       </c>
       <c r="G237" s="1">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="H237" t="s">
-        <v>1307</v>
+        <v>1213</v>
       </c>
       <c r="I237" s="1">
         <v>0</v>
@@ -11820,28 +11850,28 @@
         <v>1362</v>
       </c>
       <c r="B238" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="C238" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="D238" t="s">
-        <v>625</v>
+        <v>521</v>
       </c>
       <c r="E238" t="s">
-        <v>857</v>
+        <v>759</v>
       </c>
       <c r="F238" t="s">
-        <v>1086</v>
+        <v>988</v>
       </c>
       <c r="G238" s="1">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="H238" t="s">
-        <v>1308</v>
+        <v>1214</v>
       </c>
       <c r="I238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -11849,25 +11879,25 @@
         <v>1362</v>
       </c>
       <c r="B239" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="C239" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="D239" t="s">
-        <v>625</v>
+        <v>524</v>
       </c>
       <c r="E239" t="s">
-        <v>857</v>
+        <v>762</v>
       </c>
       <c r="F239" t="s">
-        <v>1086</v>
+        <v>991</v>
       </c>
       <c r="G239" s="1">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="H239" t="s">
-        <v>1308</v>
+        <v>1217</v>
       </c>
       <c r="I239" s="1">
         <v>0</v>
@@ -11878,25 +11908,25 @@
         <v>1362</v>
       </c>
       <c r="B240" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C240" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="D240" t="s">
-        <v>626</v>
+        <v>543</v>
       </c>
       <c r="E240" t="s">
-        <v>858</v>
+        <v>779</v>
       </c>
       <c r="F240" t="s">
-        <v>1087</v>
+        <v>1008</v>
       </c>
       <c r="G240" s="1">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="H240" t="s">
-        <v>1309</v>
+        <v>1233</v>
       </c>
       <c r="I240" s="1">
         <v>0</v>
@@ -11907,25 +11937,25 @@
         <v>1362</v>
       </c>
       <c r="B241" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="C241" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="D241" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="E241" t="s">
-        <v>859</v>
+        <v>781</v>
       </c>
       <c r="F241" t="s">
-        <v>1088</v>
+        <v>1010</v>
       </c>
       <c r="G241" s="1">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="H241" t="s">
-        <v>1309</v>
+        <v>1235</v>
       </c>
       <c r="I241" s="1">
         <v>0</v>
@@ -11936,25 +11966,25 @@
         <v>1362</v>
       </c>
       <c r="B242" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C242" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="D242" t="s">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="E242" t="s">
-        <v>860</v>
+        <v>787</v>
       </c>
       <c r="F242" t="s">
-        <v>1089</v>
+        <v>1016</v>
       </c>
       <c r="G242" s="1">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="H242" t="s">
-        <v>1310</v>
+        <v>1241</v>
       </c>
       <c r="I242" s="1">
         <v>0</v>
@@ -11965,25 +11995,25 @@
         <v>1362</v>
       </c>
       <c r="B243" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="C243" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="D243" t="s">
-        <v>629</v>
+        <v>560</v>
       </c>
       <c r="E243" t="s">
-        <v>861</v>
+        <v>794</v>
       </c>
       <c r="F243" t="s">
-        <v>1090</v>
+        <v>1023</v>
       </c>
       <c r="G243" s="1">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="H243" t="s">
-        <v>1311</v>
+        <v>1247</v>
       </c>
       <c r="I243" s="1">
         <v>0</v>
@@ -11994,25 +12024,25 @@
         <v>1362</v>
       </c>
       <c r="B244" t="s">
+        <v>149</v>
+      </c>
+      <c r="C244" t="s">
+        <v>348</v>
+      </c>
+      <c r="D244" t="s">
+        <v>581</v>
+      </c>
+      <c r="E244" t="s">
+        <v>813</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G244" s="1">
         <v>190</v>
       </c>
-      <c r="C244" t="s">
-        <v>385</v>
-      </c>
-      <c r="D244" t="s">
-        <v>630</v>
-      </c>
-      <c r="E244" t="s">
-        <v>862</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G244" s="1">
-        <v>243</v>
-      </c>
       <c r="H244" t="s">
-        <v>1312</v>
+        <v>1266</v>
       </c>
       <c r="I244" s="1">
         <v>0</v>
@@ -12023,25 +12053,25 @@
         <v>1362</v>
       </c>
       <c r="B245" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C245" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D245" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="E245" t="s">
-        <v>862</v>
+        <v>816</v>
       </c>
       <c r="F245" t="s">
-        <v>1091</v>
+        <v>1045</v>
       </c>
       <c r="G245" s="1">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="H245" t="s">
-        <v>1312</v>
+        <v>1269</v>
       </c>
       <c r="I245" s="1">
         <v>0</v>
@@ -12052,25 +12082,25 @@
         <v>1362</v>
       </c>
       <c r="B246" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C246" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="D246" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="E246" t="s">
-        <v>863</v>
+        <v>822</v>
       </c>
       <c r="F246" t="s">
-        <v>1092</v>
+        <v>1051</v>
       </c>
       <c r="G246" s="1">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="H246" t="s">
-        <v>1313</v>
+        <v>1275</v>
       </c>
       <c r="I246" s="1">
         <v>0</v>
@@ -12081,25 +12111,25 @@
         <v>1362</v>
       </c>
       <c r="B247" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="C247" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="D247" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="E247" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="F247" t="s">
-        <v>1093</v>
+        <v>1060</v>
       </c>
       <c r="G247" s="1">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="H247" t="s">
-        <v>1314</v>
+        <v>1284</v>
       </c>
       <c r="I247" s="1">
         <v>0</v>
@@ -12110,25 +12140,25 @@
         <v>1362</v>
       </c>
       <c r="B248" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C248" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D248" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="E248" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="F248" t="s">
-        <v>1094</v>
+        <v>1062</v>
       </c>
       <c r="G248" s="1">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="H248" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="I248" s="1">
         <v>0</v>
@@ -12139,25 +12169,25 @@
         <v>1362</v>
       </c>
       <c r="B249" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C249" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D249" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="E249" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="F249" t="s">
-        <v>1095</v>
+        <v>1065</v>
       </c>
       <c r="G249" s="1">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H249" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="I249" s="1">
         <v>0</v>
@@ -12168,25 +12198,25 @@
         <v>1362</v>
       </c>
       <c r="B250" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C250" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="D250" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="E250" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="F250" t="s">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="G250" s="1">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="H250" t="s">
-        <v>1317</v>
+        <v>1289</v>
       </c>
       <c r="I250" s="1">
         <v>0</v>
@@ -12197,25 +12227,25 @@
         <v>1362</v>
       </c>
       <c r="B251" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C251" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D251" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="E251" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="F251" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="G251" s="1">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="H251" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="I251" s="1">
         <v>0</v>
@@ -12226,25 +12256,25 @@
         <v>1362</v>
       </c>
       <c r="B252" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C252" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D252" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E252" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F252" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="G252" s="1">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H252" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="I252" s="1">
         <v>0</v>
@@ -12255,25 +12285,25 @@
         <v>1362</v>
       </c>
       <c r="B253" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C253" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D253" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="E253" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="F253" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="G253" s="1">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="H253" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="I253" s="1">
         <v>0</v>
@@ -12284,25 +12314,25 @@
         <v>1362</v>
       </c>
       <c r="B254" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C254" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D254" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E254" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F254" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="G254" s="1">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H254" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="I254" s="1">
         <v>0</v>
@@ -12313,25 +12343,25 @@
         <v>1362</v>
       </c>
       <c r="B255" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C255" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D255" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E255" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="F255" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="G255" s="1">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H255" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="I255" s="1">
         <v>0</v>
@@ -12342,25 +12372,25 @@
         <v>1362</v>
       </c>
       <c r="B256" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C256" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D256" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="E256" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="F256" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
       <c r="G256" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H256" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="I256" s="1">
         <v>0</v>
@@ -12371,25 +12401,25 @@
         <v>1362</v>
       </c>
       <c r="B257" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C257" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D257" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="E257" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="F257" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="G257" s="1">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="H257" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="I257" s="1">
         <v>0</v>
@@ -12400,25 +12430,25 @@
         <v>1362</v>
       </c>
       <c r="B258" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C258" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D258" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="E258" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="F258" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="G258" s="1">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H258" t="s">
-        <v>1323</v>
+        <v>1339</v>
       </c>
       <c r="I258" s="1">
         <v>0</v>
@@ -12429,25 +12459,25 @@
         <v>1362</v>
       </c>
       <c r="B259" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C259" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D259" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="E259" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="F259" t="s">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="G259" s="1">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H259" t="s">
-        <v>1324</v>
+        <v>1339</v>
       </c>
       <c r="I259" s="1">
         <v>0</v>
@@ -12458,28 +12488,28 @@
         <v>1362</v>
       </c>
       <c r="B260" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="C260" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="D260" t="s">
-        <v>645</v>
+        <v>520</v>
       </c>
       <c r="E260" t="s">
-        <v>876</v>
+        <v>758</v>
       </c>
       <c r="F260" t="s">
-        <v>1105</v>
+        <v>987</v>
       </c>
       <c r="G260" s="1">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="H260" t="s">
-        <v>1325</v>
+        <v>1353</v>
       </c>
       <c r="I260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -12487,25 +12517,25 @@
         <v>1362</v>
       </c>
       <c r="B261" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="C261" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
       <c r="D261" t="s">
-        <v>646</v>
+        <v>512</v>
       </c>
       <c r="E261" t="s">
-        <v>877</v>
+        <v>750</v>
       </c>
       <c r="F261" t="s">
-        <v>1106</v>
+        <v>979</v>
       </c>
       <c r="G261" s="1">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="H261" t="s">
-        <v>1326</v>
+        <v>1206</v>
       </c>
       <c r="I261" s="1">
         <v>0</v>
@@ -12516,25 +12546,25 @@
         <v>1362</v>
       </c>
       <c r="B262" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="C262" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="D262" t="s">
-        <v>647</v>
+        <v>567</v>
       </c>
       <c r="E262" t="s">
-        <v>878</v>
+        <v>801</v>
       </c>
       <c r="F262" t="s">
-        <v>1107</v>
+        <v>1030</v>
       </c>
       <c r="G262" s="1">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="H262" t="s">
-        <v>1327</v>
+        <v>1254</v>
       </c>
       <c r="I262" s="1">
         <v>0</v>
@@ -12545,25 +12575,25 @@
         <v>1362</v>
       </c>
       <c r="B263" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C263" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="D263" t="s">
-        <v>647</v>
+        <v>595</v>
       </c>
       <c r="E263" t="s">
-        <v>878</v>
+        <v>827</v>
       </c>
       <c r="F263" t="s">
-        <v>1107</v>
+        <v>1056</v>
       </c>
       <c r="G263" s="1">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="H263" t="s">
-        <v>1327</v>
+        <v>1280</v>
       </c>
       <c r="I263" s="1">
         <v>0</v>
@@ -12574,25 +12604,25 @@
         <v>1362</v>
       </c>
       <c r="B264" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C264" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="D264" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
       <c r="E264" t="s">
-        <v>879</v>
+        <v>827</v>
       </c>
       <c r="F264" t="s">
-        <v>1108</v>
+        <v>1056</v>
       </c>
       <c r="G264" s="1">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="H264" t="s">
-        <v>1328</v>
+        <v>1280</v>
       </c>
       <c r="I264" s="1">
         <v>0</v>
@@ -12603,25 +12633,25 @@
         <v>1362</v>
       </c>
       <c r="B265" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C265" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D265" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E265" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="F265" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="G265" s="1">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="H265" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="I265" s="1">
         <v>0</v>
@@ -12632,25 +12662,25 @@
         <v>1362</v>
       </c>
       <c r="B266" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C266" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D266" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E266" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F266" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G266" s="1">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H266" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I266" s="1">
         <v>0</v>
@@ -12661,25 +12691,25 @@
         <v>1362</v>
       </c>
       <c r="B267" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C267" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D267" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="E267" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="F267" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="G267" s="1">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H267" t="s">
-        <v>1331</v>
+        <v>1338</v>
       </c>
       <c r="I267" s="1">
         <v>0</v>
@@ -12690,25 +12720,25 @@
         <v>1362</v>
       </c>
       <c r="B268" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C268" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D268" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="E268" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="F268" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="G268" s="1">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="H268" t="s">
-        <v>1332</v>
+        <v>1342</v>
       </c>
       <c r="I268" s="1">
         <v>0</v>
@@ -12719,25 +12749,25 @@
         <v>1362</v>
       </c>
       <c r="B269" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="C269" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="D269" t="s">
-        <v>653</v>
+        <v>573</v>
       </c>
       <c r="E269" t="s">
-        <v>884</v>
+        <v>805</v>
       </c>
       <c r="F269" t="s">
-        <v>1113</v>
+        <v>1034</v>
       </c>
       <c r="G269" s="1">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="H269" t="s">
-        <v>1333</v>
+        <v>1258</v>
       </c>
       <c r="I269" s="1">
         <v>0</v>
@@ -12748,25 +12778,25 @@
         <v>1362</v>
       </c>
       <c r="B270" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="C270" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="D270" t="s">
-        <v>654</v>
+        <v>576</v>
       </c>
       <c r="E270" t="s">
-        <v>885</v>
+        <v>808</v>
       </c>
       <c r="F270" t="s">
-        <v>1114</v>
+        <v>1037</v>
       </c>
       <c r="G270" s="1">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="H270" t="s">
-        <v>1334</v>
+        <v>1261</v>
       </c>
       <c r="I270" s="1">
         <v>0</v>
@@ -12777,25 +12807,25 @@
         <v>1362</v>
       </c>
       <c r="B271" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="C271" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="D271" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="E271" t="s">
-        <v>886</v>
+        <v>819</v>
       </c>
       <c r="F271" t="s">
-        <v>1115</v>
+        <v>1048</v>
       </c>
       <c r="G271" s="1">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="H271" t="s">
-        <v>1335</v>
+        <v>1272</v>
       </c>
       <c r="I271" s="1">
         <v>0</v>
@@ -12806,25 +12836,25 @@
         <v>1362</v>
       </c>
       <c r="B272" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C272" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="D272" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="E272" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="F272" t="s">
-        <v>1116</v>
+        <v>1075</v>
       </c>
       <c r="G272" s="1">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="H272" t="s">
-        <v>1336</v>
+        <v>1297</v>
       </c>
       <c r="I272" s="1">
         <v>0</v>
@@ -12835,25 +12865,25 @@
         <v>1362</v>
       </c>
       <c r="B273" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C273" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="D273" t="s">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="E273" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="F273" t="s">
-        <v>1117</v>
+        <v>1077</v>
       </c>
       <c r="G273" s="1">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="H273" t="s">
-        <v>1337</v>
+        <v>1299</v>
       </c>
       <c r="I273" s="1">
         <v>0</v>
@@ -12864,25 +12894,25 @@
         <v>1362</v>
       </c>
       <c r="B274" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C274" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="D274" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="E274" t="s">
-        <v>888</v>
+        <v>850</v>
       </c>
       <c r="F274" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="G274" s="1">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="H274" t="s">
-        <v>1337</v>
+        <v>1301</v>
       </c>
       <c r="I274" s="1">
         <v>0</v>
@@ -12893,25 +12923,25 @@
         <v>1362</v>
       </c>
       <c r="B275" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="C275" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="D275" t="s">
-        <v>659</v>
+        <v>531</v>
       </c>
       <c r="E275" t="s">
-        <v>888</v>
+        <v>769</v>
       </c>
       <c r="F275" t="s">
-        <v>1117</v>
+        <v>998</v>
       </c>
       <c r="G275" s="1">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="H275" t="s">
-        <v>1337</v>
+        <v>1223</v>
       </c>
       <c r="I275" s="1">
         <v>0</v>
@@ -12922,25 +12952,25 @@
         <v>1362</v>
       </c>
       <c r="B276" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="C276" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="D276" t="s">
-        <v>660</v>
+        <v>538</v>
       </c>
       <c r="E276" t="s">
-        <v>889</v>
+        <v>775</v>
       </c>
       <c r="F276" t="s">
-        <v>1118</v>
+        <v>1004</v>
       </c>
       <c r="G276" s="1">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="H276" t="s">
-        <v>1338</v>
+        <v>1229</v>
       </c>
       <c r="I276" s="1">
         <v>0</v>
@@ -12951,25 +12981,25 @@
         <v>1362</v>
       </c>
       <c r="B277" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="C277" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="D277" t="s">
-        <v>661</v>
+        <v>589</v>
       </c>
       <c r="E277" t="s">
-        <v>890</v>
+        <v>821</v>
       </c>
       <c r="F277" t="s">
-        <v>1119</v>
+        <v>1050</v>
       </c>
       <c r="G277" s="1">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="H277" t="s">
-        <v>1339</v>
+        <v>1274</v>
       </c>
       <c r="I277" s="1">
         <v>0</v>
@@ -12980,25 +13010,25 @@
         <v>1362</v>
       </c>
       <c r="B278" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="C278" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="D278" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="E278" t="s">
-        <v>890</v>
+        <v>832</v>
       </c>
       <c r="F278" t="s">
-        <v>1119</v>
+        <v>1061</v>
       </c>
       <c r="G278" s="1">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="H278" t="s">
-        <v>1339</v>
+        <v>1285</v>
       </c>
       <c r="I278" s="1">
         <v>0</v>
@@ -13009,28 +13039,28 @@
         <v>1362</v>
       </c>
       <c r="B279" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="C279" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="D279" t="s">
-        <v>662</v>
+        <v>522</v>
       </c>
       <c r="E279" t="s">
-        <v>891</v>
+        <v>760</v>
       </c>
       <c r="F279" t="s">
-        <v>1120</v>
+        <v>989</v>
       </c>
       <c r="G279" s="1">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="H279" t="s">
-        <v>1340</v>
+        <v>1354</v>
       </c>
       <c r="I279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -13038,25 +13068,25 @@
         <v>1362</v>
       </c>
       <c r="B280" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="C280" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
       <c r="D280" t="s">
-        <v>662</v>
+        <v>464</v>
       </c>
       <c r="E280" t="s">
-        <v>891</v>
+        <v>708</v>
       </c>
       <c r="F280" t="s">
-        <v>1120</v>
+        <v>937</v>
       </c>
       <c r="G280" s="1">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="H280" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="I280" s="1">
         <v>0</v>
@@ -13067,25 +13097,25 @@
         <v>1362</v>
       </c>
       <c r="B281" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="C281" t="s">
-        <v>412</v>
+        <v>308</v>
       </c>
       <c r="D281" t="s">
-        <v>663</v>
+        <v>530</v>
       </c>
       <c r="E281" t="s">
-        <v>892</v>
+        <v>768</v>
       </c>
       <c r="F281" t="s">
-        <v>1121</v>
+        <v>997</v>
       </c>
       <c r="G281" s="1">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="H281" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="I281" s="1">
         <v>0</v>
@@ -13096,33 +13126,58 @@
         <v>1362</v>
       </c>
       <c r="B282" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="C282" t="s">
-        <v>413</v>
+        <v>329</v>
       </c>
       <c r="D282" t="s">
-        <v>664</v>
+        <v>557</v>
       </c>
       <c r="E282" t="s">
-        <v>893</v>
+        <v>791</v>
       </c>
       <c r="F282" t="s">
-        <v>1122</v>
+        <v>1020</v>
       </c>
       <c r="G282" s="1">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c r="H282" t="s">
-        <v>1342</v>
+        <v>1352</v>
       </c>
       <c r="I282" s="1">
         <v>0</v>
       </c>
     </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D283" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D284" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D285" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1135</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:I290">
-    <sortCondition ref="G273"/>
+  <autoFilter ref="H1:H282"/>
+  <sortState ref="A2:I282">
+    <sortCondition ref="H6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13130,16 +13185,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="161" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
   </cols>
@@ -13244,59 +13299,113 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1164</v>
+        <v>1363</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1206</v>
+        <v>1364</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1348</v>
+        <v>1364</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1297</v>
+        <v>1364</v>
       </c>
       <c r="C14" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1357</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1223</v>
+        <v>1364</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D17" t="s">
         <v>1164</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1164</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:A16">
+  <sortState ref="A2:A22">
     <sortCondition ref="A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
